--- a/resources/experiment 1/predictions/global/LinearRegression/incidence/Comorbilidades (INC).xlsx
+++ b/resources/experiment 1/predictions/global/LinearRegression/incidence/Comorbilidades (INC).xlsx
@@ -754,16 +754,16 @@
         <v>3.190241653143763</v>
       </c>
       <c r="B3" t="n">
-        <v>0.02757599559424481</v>
+        <v>0.02757599559424477</v>
       </c>
       <c r="C3" t="n">
         <v>13.41149298136574</v>
       </c>
       <c r="D3" t="n">
-        <v>6.172506529703293</v>
+        <v>6.172506529703295</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2717525771450535</v>
+        <v>0.2717525771450536</v>
       </c>
       <c r="F3" t="n">
         <v>15.91940953756488</v>
@@ -775,7 +775,7 @@
         <v>0.1477877982834814</v>
       </c>
       <c r="I3" t="n">
-        <v>16.93644090359276</v>
+        <v>16.93644090359277</v>
       </c>
       <c r="J3" t="n">
         <v>1.54012239987816</v>
@@ -787,7 +787,7 @@
         <v>6.376475789314945</v>
       </c>
       <c r="M3" t="n">
-        <v>-3.600171821110638</v>
+        <v>-3.600171821110636</v>
       </c>
       <c r="N3" t="n">
         <v>-2.416063872790074</v>
@@ -796,16 +796,16 @@
         <v>-4.51148796228351</v>
       </c>
       <c r="P3" t="n">
-        <v>-4.134898981499774</v>
+        <v>-4.134898981499767</v>
       </c>
       <c r="Q3" t="n">
-        <v>-7.187665903305838</v>
+        <v>-7.187665903305845</v>
       </c>
       <c r="R3" t="n">
         <v>0.8210771355299187</v>
       </c>
       <c r="S3" t="n">
-        <v>-2.044071033346412</v>
+        <v>-2.04407103334642</v>
       </c>
       <c r="T3" t="n">
         <v>-10.22498167231442</v>
@@ -823,7 +823,7 @@
         <v>-6.48780891808542</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.892933768781489</v>
+        <v>9.892933768781496</v>
       </c>
       <c r="Z3" t="n">
         <v>-0.7505647322637614</v>
@@ -832,19 +832,19 @@
         <v>21.75561769301999</v>
       </c>
       <c r="AB3" t="n">
-        <v>-0.9878293984259443</v>
+        <v>-0.9878293984259514</v>
       </c>
       <c r="AC3" t="n">
         <v>-2.660420160029011</v>
       </c>
       <c r="AD3" t="n">
-        <v>1.625356627204102</v>
+        <v>1.625356627204095</v>
       </c>
       <c r="AE3" t="n">
         <v>44.44547359010058</v>
       </c>
       <c r="AF3" t="n">
-        <v>29.55854996992883</v>
+        <v>29.55854996992884</v>
       </c>
       <c r="AG3" t="n">
         <v>59.8081933673135</v>
@@ -856,16 +856,16 @@
         <v>-3.132610965026835</v>
       </c>
       <c r="AJ3" t="n">
-        <v>12.56324273934792</v>
+        <v>12.56324273934791</v>
       </c>
       <c r="AK3" t="n">
         <v>10.80983679783726</v>
       </c>
       <c r="AL3" t="n">
-        <v>3.4670903377665</v>
+        <v>3.467090337766507</v>
       </c>
       <c r="AM3" t="n">
-        <v>20.81018269942083</v>
+        <v>20.81018269942084</v>
       </c>
     </row>
     <row r="4">
@@ -873,10 +873,10 @@
         <v>4.432140469794511</v>
       </c>
       <c r="B4" t="n">
-        <v>0.01060409940556908</v>
+        <v>0.01060409940556906</v>
       </c>
       <c r="C4" t="n">
-        <v>17.57529676520589</v>
+        <v>17.5752967652059</v>
       </c>
       <c r="D4" t="n">
         <v>8.35728536051159</v>
@@ -894,7 +894,7 @@
         <v>0.2184641572081575</v>
       </c>
       <c r="I4" t="n">
-        <v>24.62285886701623</v>
+        <v>24.62285886701624</v>
       </c>
       <c r="J4" t="n">
         <v>2.404387408742862</v>
@@ -906,40 +906,40 @@
         <v>9.795854883226855</v>
       </c>
       <c r="M4" t="n">
-        <v>-1.487987334213861</v>
+        <v>-1.48798733421386</v>
       </c>
       <c r="N4" t="n">
-        <v>-1.203806620831832</v>
+        <v>-1.203806620831833</v>
       </c>
       <c r="O4" t="n">
         <v>-1.44905497463418</v>
       </c>
       <c r="P4" t="n">
-        <v>6.470160078083772</v>
+        <v>6.470160078083779</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.32530300211263</v>
+        <v>1.325303002112626</v>
       </c>
       <c r="R4" t="n">
         <v>12.81824278879071</v>
       </c>
       <c r="S4" t="n">
-        <v>12.11796339314985</v>
+        <v>12.11796339314984</v>
       </c>
       <c r="T4" t="n">
-        <v>4.187771374720015</v>
+        <v>4.187771374720022</v>
       </c>
       <c r="U4" t="n">
         <v>19.25955655340444</v>
       </c>
       <c r="V4" t="n">
-        <v>2.796248358286569</v>
+        <v>2.796248358286576</v>
       </c>
       <c r="W4" t="n">
-        <v>-1.919149609893068</v>
+        <v>-1.919149609893061</v>
       </c>
       <c r="X4" t="n">
-        <v>8.376207405694913</v>
+        <v>8.376207405694906</v>
       </c>
       <c r="Y4" t="n">
         <v>21.03065685359862</v>
@@ -951,13 +951,13 @@
         <v>32.22424716285698</v>
       </c>
       <c r="AB4" t="n">
-        <v>3.192666118988626</v>
+        <v>3.192666118988619</v>
       </c>
       <c r="AC4" t="n">
         <v>0.7751742038769134</v>
       </c>
       <c r="AD4" t="n">
-        <v>6.651406545235226</v>
+        <v>6.651406545235222</v>
       </c>
       <c r="AE4" t="n">
         <v>48.7003081417358</v>
@@ -966,19 +966,19 @@
         <v>33.76703579924678</v>
       </c>
       <c r="AG4" t="n">
-        <v>63.52366313513336</v>
+        <v>63.52366313513335</v>
       </c>
       <c r="AH4" t="n">
         <v>15.58115209878986</v>
       </c>
       <c r="AI4" t="n">
-        <v>8.266579145070892</v>
+        <v>8.266579145070885</v>
       </c>
       <c r="AJ4" t="n">
         <v>24.38741633400444</v>
       </c>
       <c r="AK4" t="n">
-        <v>20.17711831968099</v>
+        <v>20.17711831968098</v>
       </c>
       <c r="AL4" t="n">
         <v>11.88188497869239</v>
@@ -992,7 +992,7 @@
         <v>3.605383589859892</v>
       </c>
       <c r="B5" t="n">
-        <v>0.04709259662743789</v>
+        <v>0.04709259662743787</v>
       </c>
       <c r="C5" t="n">
         <v>14.568723447434</v>
@@ -1013,7 +1013,7 @@
         <v>0.1979042098357569</v>
       </c>
       <c r="I5" t="n">
-        <v>19.91926490469237</v>
+        <v>19.91926490469238</v>
       </c>
       <c r="J5" t="n">
         <v>1.834868836390595</v>
@@ -1025,16 +1025,16 @@
         <v>7.810134270671529</v>
       </c>
       <c r="M5" t="n">
-        <v>-2.223962402960969</v>
+        <v>-2.223962402960967</v>
       </c>
       <c r="N5" t="n">
-        <v>-1.616498714034202</v>
+        <v>-1.616498714034203</v>
       </c>
       <c r="O5" t="n">
         <v>-2.495337141486065</v>
       </c>
       <c r="P5" t="n">
-        <v>-1.64853745926041</v>
+        <v>-1.648537459260403</v>
       </c>
       <c r="Q5" t="n">
         <v>-4.791352484428135</v>
@@ -1043,16 +1043,16 @@
         <v>3.257387900494805</v>
       </c>
       <c r="S5" t="n">
-        <v>-1.097537132767926</v>
+        <v>-1.097537132767933</v>
       </c>
       <c r="T5" t="n">
-        <v>-9.15028274350508</v>
+        <v>-9.150282743505073</v>
       </c>
       <c r="U5" t="n">
         <v>6.561106041256608</v>
       </c>
       <c r="V5" t="n">
-        <v>-10.15914674299512</v>
+        <v>-10.15914674299511</v>
       </c>
       <c r="W5" t="n">
         <v>-13.72464261239906</v>
@@ -1070,31 +1070,31 @@
         <v>23.81657387118912</v>
       </c>
       <c r="AB5" t="n">
-        <v>2.297066339775725</v>
+        <v>2.297066339775718</v>
       </c>
       <c r="AC5" t="n">
         <v>-0.3528074042908109</v>
       </c>
       <c r="AD5" t="n">
-        <v>5.829091448111676</v>
+        <v>5.829091448111672</v>
       </c>
       <c r="AE5" t="n">
         <v>46.39936744302874</v>
       </c>
       <c r="AF5" t="n">
-        <v>31.69196035503919</v>
+        <v>31.6919603550392</v>
       </c>
       <c r="AG5" t="n">
         <v>61.43106343630103</v>
       </c>
       <c r="AH5" t="n">
-        <v>5.064358441253795</v>
+        <v>5.064358441253802</v>
       </c>
       <c r="AI5" t="n">
-        <v>-1.825079645799569</v>
+        <v>-1.825079645799576</v>
       </c>
       <c r="AJ5" t="n">
-        <v>13.90120162022912</v>
+        <v>13.90120162022911</v>
       </c>
       <c r="AK5" t="n">
         <v>13.94545940714678</v>
@@ -1111,7 +1111,7 @@
         <v>6.333648946302269</v>
       </c>
       <c r="B6" t="n">
-        <v>0.07491472258334594</v>
+        <v>0.07491472258334592</v>
       </c>
       <c r="C6" t="n">
         <v>23.85644265009464</v>
@@ -1144,7 +1144,7 @@
         <v>14.70171599787725</v>
       </c>
       <c r="M6" t="n">
-        <v>2.647310034067225</v>
+        <v>2.647310034067226</v>
       </c>
       <c r="N6" t="n">
         <v>1.160390877789778</v>
@@ -1153,7 +1153,7 @@
         <v>4.619451220502933</v>
       </c>
       <c r="P6" t="n">
-        <v>20.70979263702308</v>
+        <v>20.70979263702309</v>
       </c>
       <c r="Q6" t="n">
         <v>13.34759233459803</v>
@@ -1162,7 +1162,7 @@
         <v>28.33898935885883</v>
       </c>
       <c r="S6" t="n">
-        <v>27.58397867896323</v>
+        <v>27.58397867896322</v>
       </c>
       <c r="T6" t="n">
         <v>19.86849630918977</v>
@@ -1201,7 +1201,7 @@
         <v>56.07501777429304</v>
       </c>
       <c r="AF6" t="n">
-        <v>41.57077525374196</v>
+        <v>41.57077525374197</v>
       </c>
       <c r="AG6" t="n">
         <v>69.81109937564152</v>
@@ -1284,13 +1284,13 @@
         <v>54.69126698442584</v>
       </c>
       <c r="T7" t="n">
-        <v>46.816458294299</v>
+        <v>46.81645829429899</v>
       </c>
       <c r="U7" t="n">
         <v>60.95389837177592</v>
       </c>
       <c r="V7" t="n">
-        <v>45.59501884539253</v>
+        <v>45.59501884539254</v>
       </c>
       <c r="W7" t="n">
         <v>37.49963577035935</v>
@@ -1335,7 +1335,7 @@
         <v>60.76841919589042</v>
       </c>
       <c r="AK7" t="n">
-        <v>50.01713543780805</v>
+        <v>50.01713543780804</v>
       </c>
       <c r="AL7" t="n">
         <v>38.14012105091749</v>
@@ -1349,7 +1349,7 @@
         <v>13.35911163330758</v>
       </c>
       <c r="B8" t="n">
-        <v>0.221182405590371</v>
+        <v>0.2211824055903711</v>
       </c>
       <c r="C8" t="n">
         <v>49.13806713107953</v>
@@ -1385,7 +1385,7 @@
         <v>13.03636285040902</v>
       </c>
       <c r="N8" t="n">
-        <v>6.981746696896421</v>
+        <v>6.981746696896422</v>
       </c>
       <c r="O8" t="n">
         <v>19.87300678875803</v>
@@ -1403,7 +1403,7 @@
         <v>110.5186777654698</v>
       </c>
       <c r="T8" t="n">
-        <v>102.897891500696</v>
+        <v>102.8978915006959</v>
       </c>
       <c r="U8" t="n">
         <v>115.3063238948625</v>
@@ -1412,7 +1412,7 @@
         <v>101.5122763582167</v>
       </c>
       <c r="W8" t="n">
-        <v>88.85776717470998</v>
+        <v>88.85776717470999</v>
       </c>
       <c r="X8" t="n">
         <v>110.1215351935394</v>
@@ -1421,7 +1421,7 @@
         <v>98.62069590984999</v>
       </c>
       <c r="Z8" t="n">
-        <v>86.32022533445677</v>
+        <v>86.32022533445675</v>
       </c>
       <c r="AA8" t="n">
         <v>106.2426382537675</v>
@@ -1439,13 +1439,13 @@
         <v>79.68136724620429</v>
       </c>
       <c r="AF8" t="n">
-        <v>65.72897757204652</v>
+        <v>65.7289775720465</v>
       </c>
       <c r="AG8" t="n">
         <v>90.40380684818344</v>
       </c>
       <c r="AH8" t="n">
-        <v>99.66416602244182</v>
+        <v>99.6641660224418</v>
       </c>
       <c r="AI8" t="n">
         <v>87.96153449937864</v>
@@ -1468,7 +1468,7 @@
         <v>6.15067581446608</v>
       </c>
       <c r="B9" t="n">
-        <v>0.09982816727785805</v>
+        <v>0.09982816727785801</v>
       </c>
       <c r="C9" t="n">
         <v>23.53215835169129</v>
@@ -1501,16 +1501,16 @@
         <v>13.54221628966803</v>
       </c>
       <c r="M9" t="n">
-        <v>1.931737827765596</v>
+        <v>1.931737827765597</v>
       </c>
       <c r="N9" t="n">
-        <v>0.7290033040982178</v>
+        <v>0.7290033040982173</v>
       </c>
       <c r="O9" t="n">
-        <v>3.59927379429862</v>
+        <v>3.599273794298621</v>
       </c>
       <c r="P9" t="n">
-        <v>19.40329935323455</v>
+        <v>19.40329935323456</v>
       </c>
       <c r="Q9" t="n">
         <v>12.09266915765942</v>
@@ -1519,10 +1519,10 @@
         <v>27.03357715594971</v>
       </c>
       <c r="S9" t="n">
-        <v>27.03349840097358</v>
+        <v>27.03349840097357</v>
       </c>
       <c r="T9" t="n">
-        <v>19.10176250759929</v>
+        <v>19.1017625075993</v>
       </c>
       <c r="U9" t="n">
         <v>33.98573950705915</v>
@@ -1537,7 +1537,7 @@
         <v>24.22730579614216</v>
       </c>
       <c r="Y9" t="n">
-        <v>34.06990775757724</v>
+        <v>34.06990775757725</v>
       </c>
       <c r="Z9" t="n">
         <v>22.93545089714457</v>
@@ -1549,7 +1549,7 @@
         <v>10.54277570472573</v>
       </c>
       <c r="AC9" t="n">
-        <v>6.096931482366182</v>
+        <v>6.096931482366183</v>
       </c>
       <c r="AD9" t="n">
         <v>15.65933170823446</v>
@@ -1599,7 +1599,7 @@
         <v>1.743654757609166</v>
       </c>
       <c r="F10" t="n">
-        <v>59.24617392520309</v>
+        <v>59.2461739252031</v>
       </c>
       <c r="G10" t="n">
         <v>26.76473915200361</v>
@@ -1608,10 +1608,10 @@
         <v>0.9216749785010359</v>
       </c>
       <c r="I10" t="n">
-        <v>71.60725150703981</v>
+        <v>71.60725150703979</v>
       </c>
       <c r="J10" t="n">
-        <v>7.446741781400772</v>
+        <v>7.446741781400773</v>
       </c>
       <c r="K10" t="n">
         <v>0.05709461318908719</v>
@@ -1632,13 +1632,13 @@
         <v>81.25231650693092</v>
       </c>
       <c r="Q10" t="n">
-        <v>61.48981090698347</v>
+        <v>61.48981090698346</v>
       </c>
       <c r="R10" t="n">
         <v>97.05673271940529</v>
       </c>
       <c r="S10" t="n">
-        <v>110.8761247242084</v>
+        <v>110.8761247242085</v>
       </c>
       <c r="T10" t="n">
         <v>103.0911644593219</v>
@@ -1650,7 +1650,7 @@
         <v>101.8177869317109</v>
       </c>
       <c r="W10" t="n">
-        <v>89.21918476545567</v>
+        <v>89.21918476545568</v>
       </c>
       <c r="X10" t="n">
         <v>110.5544765826987</v>
@@ -1659,7 +1659,7 @@
         <v>99.5616171210763</v>
       </c>
       <c r="Z10" t="n">
-        <v>86.66586935430298</v>
+        <v>86.66586935430297</v>
       </c>
       <c r="AA10" t="n">
         <v>107.3896402589655</v>
@@ -1695,7 +1695,7 @@
         <v>87.6906950227123</v>
       </c>
       <c r="AL10" t="n">
-        <v>71.34568945337445</v>
+        <v>71.34568945337443</v>
       </c>
       <c r="AM10" t="n">
         <v>99.11001199635632</v>
@@ -1727,7 +1727,7 @@
         <v>0.7014020077652806</v>
       </c>
       <c r="I11" t="n">
-        <v>54.17553142384326</v>
+        <v>54.17553142384325</v>
       </c>
       <c r="J11" t="n">
         <v>5.516153071026308</v>
@@ -1757,10 +1757,10 @@
         <v>63.80694539608116</v>
       </c>
       <c r="S11" t="n">
-        <v>69.60680199224956</v>
+        <v>69.60680199224957</v>
       </c>
       <c r="T11" t="n">
-        <v>61.73044942717827</v>
+        <v>61.73044942717826</v>
       </c>
       <c r="U11" t="n">
         <v>75.68008132543063</v>
@@ -1775,7 +1775,7 @@
         <v>68.40390113820432</v>
       </c>
       <c r="Y11" t="n">
-        <v>68.28620044629285</v>
+        <v>68.28620044629287</v>
       </c>
       <c r="Z11" t="n">
         <v>55.95931575881611</v>
@@ -1846,10 +1846,10 @@
         <v>0.5518053959542013</v>
       </c>
       <c r="I12" t="n">
-        <v>44.43022930407019</v>
+        <v>44.4302293040702</v>
       </c>
       <c r="J12" t="n">
-        <v>4.449829369516547</v>
+        <v>4.449829369516546</v>
       </c>
       <c r="K12" t="n">
         <v>0.0327753567117534</v>
@@ -1858,13 +1858,13 @@
         <v>18.44807740431842</v>
       </c>
       <c r="M12" t="n">
-        <v>6.067035196046683</v>
+        <v>6.067035196046684</v>
       </c>
       <c r="N12" t="n">
         <v>3.093200802719828</v>
       </c>
       <c r="O12" t="n">
-        <v>9.667779989435733</v>
+        <v>9.667779989435735</v>
       </c>
       <c r="P12" t="n">
         <v>33.64293191217386</v>
@@ -1894,7 +1894,7 @@
         <v>41.11734201749024</v>
       </c>
       <c r="Y12" t="n">
-        <v>48.14850685632653</v>
+        <v>48.14850685632654</v>
       </c>
       <c r="Z12" t="n">
         <v>36.64342769096669</v>
@@ -1986,7 +1986,7 @@
         <v>20.83682443480079</v>
       </c>
       <c r="P13" t="n">
-        <v>74.44011225337528</v>
+        <v>74.44011225337526</v>
       </c>
       <c r="Q13" t="n">
         <v>56.62807859738132</v>
@@ -1995,7 +1995,7 @@
         <v>88.80129003401851</v>
       </c>
       <c r="S13" t="n">
-        <v>98.21110447628031</v>
+        <v>98.21110447628033</v>
       </c>
       <c r="T13" t="n">
         <v>90.5198441426873</v>
@@ -2004,7 +2004,7 @@
         <v>103.561189392319</v>
       </c>
       <c r="V13" t="n">
-        <v>89.98336202610587</v>
+        <v>89.98336202610588</v>
       </c>
       <c r="W13" t="n">
         <v>78.44437446165657</v>
@@ -2022,7 +2022,7 @@
         <v>99.93476244563992</v>
       </c>
       <c r="AB13" t="n">
-        <v>34.38430402036286</v>
+        <v>34.38430402036287</v>
       </c>
       <c r="AC13" t="n">
         <v>24.31816653416944</v>
@@ -2052,7 +2052,7 @@
         <v>82.99277516524464</v>
       </c>
       <c r="AL13" t="n">
-        <v>67.18207835744843</v>
+        <v>67.18207835744842</v>
       </c>
       <c r="AM13" t="n">
         <v>94.20303570824402</v>
@@ -2114,7 +2114,7 @@
         <v>75.76048263912863</v>
       </c>
       <c r="S14" t="n">
-        <v>83.73022975489562</v>
+        <v>83.73022975489563</v>
       </c>
       <c r="T14" t="n">
         <v>76.0285103056198</v>
@@ -2171,7 +2171,7 @@
         <v>71.98953783956969</v>
       </c>
       <c r="AL14" t="n">
-        <v>57.52662648645181</v>
+        <v>57.5266264864518</v>
       </c>
       <c r="AM14" t="n">
         <v>83.03388426360851</v>
@@ -2182,28 +2182,28 @@
         <v>4.020525526576021</v>
       </c>
       <c r="B15" t="n">
-        <v>0.066609197660631</v>
+        <v>0.06660919766063095</v>
       </c>
       <c r="C15" t="n">
         <v>15.72595391350226</v>
       </c>
       <c r="D15" t="n">
-        <v>8.948617774684717</v>
+        <v>8.948617774684719</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6497881875598805</v>
+        <v>0.6497881875598804</v>
       </c>
       <c r="F15" t="n">
         <v>21.45616128529347</v>
       </c>
       <c r="G15" t="n">
-        <v>7.643358335418744</v>
+        <v>7.643358335418743</v>
       </c>
       <c r="H15" t="n">
         <v>0.2480206213880324</v>
       </c>
       <c r="I15" t="n">
-        <v>22.90208890579198</v>
+        <v>22.90208890579199</v>
       </c>
       <c r="J15" t="n">
         <v>2.12961527290303</v>
@@ -2215,16 +2215,16 @@
         <v>9.243792752028114</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.8477529848113008</v>
+        <v>-0.8477529848112981</v>
       </c>
       <c r="N15" t="n">
-        <v>-0.8169335552783314</v>
+        <v>-0.8169335552783323</v>
       </c>
       <c r="O15" t="n">
         <v>-0.4791863206886191</v>
       </c>
       <c r="P15" t="n">
-        <v>0.837824062978946</v>
+        <v>0.8378240629789531</v>
       </c>
       <c r="Q15" t="n">
         <v>-2.395039065550424</v>
@@ -2233,7 +2233,7 @@
         <v>5.693698665459699</v>
       </c>
       <c r="S15" t="n">
-        <v>-0.1510032321894386</v>
+        <v>-0.1510032321894528</v>
       </c>
       <c r="T15" t="n">
         <v>-8.075583814695733</v>
@@ -2242,7 +2242,7 @@
         <v>7.474055243428161</v>
       </c>
       <c r="V15" t="n">
-        <v>-8.569574049387747</v>
+        <v>-8.569574049387739</v>
       </c>
       <c r="W15" t="n">
         <v>-12.19868930135424</v>
@@ -2251,16 +2251,16 @@
         <v>-3.301651901268528</v>
       </c>
       <c r="Y15" t="n">
-        <v>13.89284337419318</v>
+        <v>13.89284337419319</v>
       </c>
       <c r="Z15" t="n">
         <v>3.192769760413142</v>
       </c>
       <c r="AA15" t="n">
-        <v>25.87753004935826</v>
+        <v>25.87753004935825</v>
       </c>
       <c r="AB15" t="n">
-        <v>5.581962077977392</v>
+        <v>5.581962077977389</v>
       </c>
       <c r="AC15" t="n">
         <v>1.954805351447389</v>
@@ -2272,7 +2272,7 @@
         <v>48.35326129595691</v>
       </c>
       <c r="AF15" t="n">
-        <v>33.82537074014955</v>
+        <v>33.82537074014956</v>
       </c>
       <c r="AG15" t="n">
         <v>63.05393350528856</v>
@@ -2328,13 +2328,13 @@
         <v>3.448300729728212</v>
       </c>
       <c r="K16" t="n">
-        <v>0.007501049572883119</v>
+        <v>0.007501049572883115</v>
       </c>
       <c r="L16" t="n">
         <v>14.25904553034632</v>
       </c>
       <c r="M16" t="n">
-        <v>2.61984253684043</v>
+        <v>2.619842536840432</v>
       </c>
       <c r="N16" t="n">
         <v>1.128785883476153</v>
@@ -2343,7 +2343,7 @@
         <v>4.607349204697343</v>
       </c>
       <c r="P16" t="n">
-        <v>20.64648011435423</v>
+        <v>20.64648011435424</v>
       </c>
       <c r="Q16" t="n">
         <v>13.29082586709827</v>
@@ -2355,10 +2355,10 @@
         <v>27.50676535126282</v>
       </c>
       <c r="T16" t="n">
-        <v>19.63911197200396</v>
+        <v>19.63911197200397</v>
       </c>
       <c r="U16" t="n">
-        <v>34.44221410814493</v>
+        <v>34.44221410814492</v>
       </c>
       <c r="V16" t="n">
         <v>18.91011557140424</v>
@@ -2370,7 +2370,7 @@
         <v>25.02384505034638</v>
       </c>
       <c r="Y16" t="n">
-        <v>35.06988515893017</v>
+        <v>35.06988515893018</v>
       </c>
       <c r="Z16" t="n">
         <v>23.92128452031379</v>
@@ -2382,7 +2382,7 @@
         <v>12.18522357382657</v>
       </c>
       <c r="AC16" t="n">
-        <v>7.250737860235282</v>
+        <v>7.250737860235283</v>
       </c>
       <c r="AD16" t="n">
         <v>17.76119911868825</v>
@@ -2420,7 +2420,7 @@
         <v>8.002988617930084</v>
       </c>
       <c r="B17" t="n">
-        <v>0.09479530003341761</v>
+        <v>0.0947953000334176</v>
       </c>
       <c r="C17" t="n">
         <v>29.30464236731845</v>
@@ -2453,7 +2453,7 @@
         <v>19.33341833938028</v>
       </c>
       <c r="M17" t="n">
-        <v>6.121970190500272</v>
+        <v>6.121970190500273</v>
       </c>
       <c r="N17" t="n">
         <v>3.156410791347078</v>
@@ -2480,7 +2480,7 @@
         <v>48.92619621720311</v>
       </c>
       <c r="V17" t="n">
-        <v>35.20774798433717</v>
+        <v>35.20774798433716</v>
       </c>
       <c r="W17" t="n">
         <v>28.02321420845161</v>
@@ -2489,7 +2489,7 @@
         <v>41.60213917088346</v>
       </c>
       <c r="Y17" t="n">
-        <v>48.22724844316202</v>
+        <v>48.22724844316201</v>
       </c>
       <c r="Z17" t="n">
         <v>37.49701382873069</v>
@@ -2525,7 +2525,7 @@
         <v>51.4764617805108</v>
       </c>
       <c r="AK17" t="n">
-        <v>46.81888238581868</v>
+        <v>46.81888238581869</v>
       </c>
       <c r="AL17" t="n">
         <v>35.51957395922658</v>
@@ -2539,7 +2539,7 @@
         <v>4.407542633272636</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.02406764580553958</v>
+        <v>-0.02406764580553961</v>
       </c>
       <c r="C18" t="n">
         <v>17.3209658305751</v>
@@ -2560,7 +2560,7 @@
         <v>0.2017897842041568</v>
       </c>
       <c r="I18" t="n">
-        <v>25.37849024015174</v>
+        <v>25.37849024015175</v>
       </c>
       <c r="J18" t="n">
         <v>2.509375945802063</v>
@@ -2572,19 +2572,19 @@
         <v>10.23852535075778</v>
       </c>
       <c r="M18" t="n">
-        <v>-1.460519836987067</v>
+        <v>-1.460519836987065</v>
       </c>
       <c r="N18" t="n">
         <v>-1.172201626518208</v>
       </c>
       <c r="O18" t="n">
-        <v>-1.436952958828591</v>
+        <v>-1.43695295882859</v>
       </c>
       <c r="P18" t="n">
         <v>6.533472600752624</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.382069469612386</v>
+        <v>1.382069469612382</v>
       </c>
       <c r="R18" t="n">
         <v>12.90549960921739</v>
@@ -2593,7 +2593,7 @@
         <v>12.19517672085026</v>
       </c>
       <c r="T18" t="n">
-        <v>4.417155711905814</v>
+        <v>4.417155711905828</v>
       </c>
       <c r="U18" t="n">
         <v>19.17882293853894</v>
@@ -2608,7 +2608,7 @@
         <v>8.618605982391522</v>
       </c>
       <c r="Y18" t="n">
-        <v>21.07002764701636</v>
+        <v>21.07002764701635</v>
       </c>
       <c r="Z18" t="n">
         <v>11.06689386425569</v>
@@ -2617,7 +2617,7 @@
         <v>32.1465645521147</v>
       </c>
       <c r="AB18" t="n">
-        <v>3.238778786940276</v>
+        <v>3.238778786940269</v>
       </c>
       <c r="AC18" t="n">
         <v>0.9437541403388554</v>
@@ -2629,7 +2629,7 @@
         <v>48.57428527404928</v>
       </c>
       <c r="AF18" t="n">
-        <v>33.50361043423897</v>
+        <v>33.50361043423898</v>
       </c>
       <c r="AG18" t="n">
         <v>63.43188888899535</v>
@@ -2647,10 +2647,10 @@
         <v>20.14304607009276</v>
       </c>
       <c r="AL18" t="n">
-        <v>11.95748667223348</v>
+        <v>11.95748667223349</v>
       </c>
       <c r="AM18" t="n">
-        <v>30.33376473195922</v>
+        <v>30.33376473195921</v>
       </c>
     </row>
     <row r="19">
@@ -2679,7 +2679,7 @@
         <v>0.7431812328155557</v>
       </c>
       <c r="I19" t="n">
-        <v>57.53617111151063</v>
+        <v>57.53617111151062</v>
       </c>
       <c r="J19" t="n">
         <v>5.863393776068344</v>
@@ -2694,13 +2694,13 @@
         <v>10.20900167815985</v>
       </c>
       <c r="N19" t="n">
-        <v>5.422900323695437</v>
+        <v>5.422900323695436</v>
       </c>
       <c r="O19" t="n">
-        <v>15.75633991731762</v>
+        <v>15.75633991731763</v>
       </c>
       <c r="P19" t="n">
-        <v>54.66311246333441</v>
+        <v>54.6631124633344</v>
       </c>
       <c r="Q19" t="n">
         <v>40.9705968984825</v>
@@ -2709,7 +2709,7 @@
         <v>66.28688457125939</v>
       </c>
       <c r="S19" t="n">
-        <v>70.59194255667825</v>
+        <v>70.59194255667826</v>
       </c>
       <c r="T19" t="n">
         <v>62.91984052458051</v>
@@ -2736,7 +2736,7 @@
         <v>79.79493376282369</v>
       </c>
       <c r="AB19" t="n">
-        <v>27.80409885848951</v>
+        <v>27.80409885848952</v>
       </c>
       <c r="AC19" t="n">
         <v>19.10652399361252</v>
@@ -2763,13 +2763,13 @@
         <v>75.36431160729965</v>
       </c>
       <c r="AK19" t="n">
-        <v>65.72380667744726</v>
+        <v>65.72380667744727</v>
       </c>
       <c r="AL19" t="n">
-        <v>51.97115477337287</v>
+        <v>51.97115477337286</v>
       </c>
       <c r="AM19" t="n">
-        <v>76.5686392429987</v>
+        <v>76.56863924299871</v>
       </c>
     </row>
     <row r="20">
@@ -2777,7 +2777,7 @@
         <v>6.748790883018398</v>
       </c>
       <c r="B20" t="n">
-        <v>0.09443132361653904</v>
+        <v>0.09443132361653901</v>
       </c>
       <c r="C20" t="n">
         <v>25.0136731161629</v>
@@ -2786,7 +2786,7 @@
         <v>14.44777002122302</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9970538930378899</v>
+        <v>0.9970538930378898</v>
       </c>
       <c r="F20" t="n">
         <v>32.60460843319898</v>
@@ -2798,7 +2798,7 @@
         <v>0.4394431045195234</v>
       </c>
       <c r="I20" t="n">
-        <v>38.63288977348548</v>
+        <v>38.63288977348549</v>
       </c>
       <c r="J20" t="n">
         <v>3.848035703299848</v>
@@ -2810,7 +2810,7 @@
         <v>16.13537447923383</v>
       </c>
       <c r="M20" t="n">
-        <v>4.023519452216893</v>
+        <v>4.023519452216895</v>
       </c>
       <c r="N20" t="n">
         <v>1.959956036545649</v>
@@ -2828,10 +2828,10 @@
         <v>30.77530012382372</v>
       </c>
       <c r="S20" t="n">
-        <v>28.53051257954172</v>
+        <v>28.53051257954171</v>
       </c>
       <c r="T20" t="n">
-        <v>20.94319523799911</v>
+        <v>20.94319523799912</v>
       </c>
       <c r="U20" t="n">
         <v>35.27442969545098</v>
@@ -2840,7 +2840,7 @@
         <v>20.8258721138846</v>
       </c>
       <c r="W20" t="n">
-        <v>14.82562091649304</v>
+        <v>14.82562091649305</v>
       </c>
       <c r="X20" t="n">
         <v>26.85932213545144</v>
@@ -2867,7 +2867,7 @@
         <v>58.02891162722121</v>
       </c>
       <c r="AF20" t="n">
-        <v>43.70418563885232</v>
+        <v>43.70418563885233</v>
       </c>
       <c r="AG20" t="n">
         <v>71.43396944462906</v>
@@ -2882,13 +2882,13 @@
         <v>39.6283379221067</v>
       </c>
       <c r="AK20" t="n">
-        <v>37.43456473918084</v>
+        <v>37.43456473918085</v>
       </c>
       <c r="AL20" t="n">
         <v>27.14258016507124</v>
       </c>
       <c r="AM20" t="n">
-        <v>47.75054121985131</v>
+        <v>47.7505412198513</v>
       </c>
     </row>
     <row r="21">
@@ -2896,7 +2896,7 @@
         <v>5.287022179748647</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0843090466830639</v>
+        <v>0.08430904668306387</v>
       </c>
       <c r="C21" t="n">
         <v>20.14408863197321</v>
@@ -2917,28 +2917,28 @@
         <v>0.3353713533167092</v>
       </c>
       <c r="I21" t="n">
-        <v>29.83287549607995</v>
+        <v>29.83287549607996</v>
       </c>
       <c r="J21" t="n">
         <v>2.88889174470853</v>
       </c>
       <c r="K21" t="n">
-        <v>0.004772661009610116</v>
+        <v>0.004772661009610119</v>
       </c>
       <c r="L21" t="n">
         <v>12.22050137840909</v>
       </c>
       <c r="M21" t="n">
-        <v>1.23696400485868</v>
+        <v>1.236964004858683</v>
       </c>
       <c r="N21" t="n">
-        <v>0.3637187023662847</v>
+        <v>0.3637187023662838</v>
       </c>
       <c r="O21" t="n">
-        <v>2.571144651155119</v>
+        <v>2.571144651155121</v>
       </c>
       <c r="P21" t="n">
-        <v>11.37957059989364</v>
+        <v>11.37957059989365</v>
       </c>
       <c r="Q21" t="n">
         <v>6.061163372368291</v>
@@ -2947,16 +2947,16 @@
         <v>17.60360749829382</v>
       </c>
       <c r="S21" t="n">
-        <v>13.93381786660641</v>
+        <v>13.9338178666064</v>
       </c>
       <c r="T21" t="n">
-        <v>6.107784895152896</v>
+        <v>6.107784895152903</v>
       </c>
       <c r="U21" t="n">
         <v>21.16618857261306</v>
       </c>
       <c r="V21" t="n">
-        <v>5.649209896628335</v>
+        <v>5.649209896628342</v>
       </c>
       <c r="W21" t="n">
         <v>0.8650509690120742</v>
@@ -2971,10 +2971,10 @@
         <v>14.15664221916858</v>
       </c>
       <c r="AA21" t="n">
-        <v>36.42384212993752</v>
+        <v>36.42384212993751</v>
       </c>
       <c r="AB21" t="n">
-        <v>9.716344927440309</v>
+        <v>9.716344927440307</v>
       </c>
       <c r="AC21" t="n">
         <v>5.221819778891371</v>
@@ -2986,7 +2986,7 @@
         <v>52.73411871527864</v>
       </c>
       <c r="AF21" t="n">
-        <v>38.2972819344753</v>
+        <v>38.29728193447531</v>
       </c>
       <c r="AG21" t="n">
         <v>66.86117751924643</v>
@@ -2995,7 +2995,7 @@
         <v>18.51853007422773</v>
       </c>
       <c r="AI21" t="n">
-        <v>10.87118121338055</v>
+        <v>10.87118121338054</v>
       </c>
       <c r="AJ21" t="n">
         <v>27.11123462326199</v>
@@ -3015,7 +3015,7 @@
         <v>13.82344924306746</v>
       </c>
       <c r="B22" t="n">
-        <v>0.3100424970457814</v>
+        <v>0.3100424970457815</v>
       </c>
       <c r="C22" t="n">
         <v>50.80395946640937</v>
@@ -3033,10 +3033,10 @@
         <v>27.1470233122674</v>
       </c>
       <c r="H22" t="n">
-        <v>0.9550703707791741</v>
+        <v>0.955070370779174</v>
       </c>
       <c r="I22" t="n">
-        <v>72.72084782102186</v>
+        <v>72.72084782102185</v>
       </c>
       <c r="J22" t="n">
         <v>7.541620731127389</v>
@@ -3057,7 +3057,7 @@
         <v>21.86495357794429</v>
       </c>
       <c r="P22" t="n">
-        <v>82.46384100671618</v>
+        <v>82.46384100671617</v>
       </c>
       <c r="Q22" t="n">
         <v>62.65958438267245</v>
@@ -3099,7 +3099,7 @@
         <v>25.19327823764425</v>
       </c>
       <c r="AD22" t="n">
-        <v>45.01693674303915</v>
+        <v>45.01693674303914</v>
       </c>
       <c r="AE22" t="n">
         <v>81.88730683450549</v>
@@ -3114,7 +3114,7 @@
         <v>101.1790138618775</v>
       </c>
       <c r="AI22" t="n">
-        <v>89.24814467831615</v>
+        <v>89.24814467831617</v>
       </c>
       <c r="AJ22" t="n">
         <v>109.0454464436757</v>
@@ -3134,7 +3134,7 @@
         <v>4.178900821890333</v>
       </c>
       <c r="B23" t="n">
-        <v>0.007024007755010248</v>
+        <v>0.007024007755010192</v>
       </c>
       <c r="C23" t="n">
         <v>15.79590727727481</v>
@@ -3155,7 +3155,7 @@
         <v>0.2397300811561686</v>
       </c>
       <c r="I23" t="n">
-        <v>25.9047636526128</v>
+        <v>25.90476365261281</v>
       </c>
       <c r="J23" t="n">
         <v>2.486965565277651</v>
@@ -3164,13 +3164,13 @@
         <v>0.01153029485364617</v>
       </c>
       <c r="L23" t="n">
-        <v>10.84596292776827</v>
+        <v>10.84596292776826</v>
       </c>
       <c r="M23" t="n">
-        <v>-0.1047132812828773</v>
+        <v>-0.1047132812828746</v>
       </c>
       <c r="N23" t="n">
-        <v>-0.3539409872731469</v>
+        <v>-0.3539409872731474</v>
       </c>
       <c r="O23" t="n">
         <v>0.5530931213212824</v>
@@ -3185,13 +3185,13 @@
         <v>7.086367688795491</v>
       </c>
       <c r="S23" t="n">
-        <v>0.4766903735006238</v>
+        <v>0.4766903735006096</v>
       </c>
       <c r="T23" t="n">
-        <v>-7.079465675919458</v>
+        <v>-7.079465675919451</v>
       </c>
       <c r="U23" t="n">
-        <v>7.769062614782918</v>
+        <v>7.769062614782925</v>
       </c>
       <c r="V23" t="n">
         <v>-7.122420004838091</v>
@@ -3209,10 +3209,10 @@
         <v>5.032189521346375</v>
       </c>
       <c r="AA23" t="n">
-        <v>26.75264291695828</v>
+        <v>26.75264291695827</v>
       </c>
       <c r="AB23" t="n">
-        <v>7.31663528298153</v>
+        <v>7.316635282981526</v>
       </c>
       <c r="AC23" t="n">
         <v>3.445771602240372</v>
@@ -3224,7 +3224,7 @@
         <v>49.07816248704795</v>
       </c>
       <c r="AF23" t="n">
-        <v>34.36522520268912</v>
+        <v>34.36522520268913</v>
       </c>
       <c r="AG23" t="n">
         <v>63.68182004750631</v>
@@ -3233,7 +3233,7 @@
         <v>7.182767361351502</v>
       </c>
       <c r="AI23" t="n">
-        <v>0.1571384733310737</v>
+        <v>0.1571384733310666</v>
       </c>
       <c r="AJ23" t="n">
         <v>15.81233888656058</v>
@@ -3245,7 +3245,7 @@
         <v>10.57759681061331</v>
       </c>
       <c r="AM23" t="n">
-        <v>28.5433259088419</v>
+        <v>28.54332590884191</v>
       </c>
     </row>
     <row r="24">
@@ -3280,19 +3280,19 @@
         <v>3.395806461198611</v>
       </c>
       <c r="K24" t="n">
-        <v>0.004339042103780097</v>
+        <v>0.0043390421037801</v>
       </c>
       <c r="L24" t="n">
         <v>14.03771029658085</v>
       </c>
       <c r="M24" t="n">
-        <v>2.606108788227033</v>
+        <v>2.606108788227034</v>
       </c>
       <c r="N24" t="n">
-        <v>1.112983386319341</v>
+        <v>1.11298338631934</v>
       </c>
       <c r="O24" t="n">
-        <v>4.601298196794548</v>
+        <v>4.601298196794549</v>
       </c>
       <c r="P24" t="n">
         <v>20.61482385301981</v>
@@ -3304,7 +3304,7 @@
         <v>28.20810412821882</v>
       </c>
       <c r="S24" t="n">
-        <v>27.46815868741262</v>
+        <v>27.46815868741261</v>
       </c>
       <c r="T24" t="n">
         <v>19.52441980341106</v>
@@ -3334,7 +3334,7 @@
         <v>12.16216723985074</v>
       </c>
       <c r="AC24" t="n">
-        <v>7.166447892004311</v>
+        <v>7.166447892004312</v>
       </c>
       <c r="AD24" t="n">
         <v>17.71682720350035</v>
@@ -3346,7 +3346,7 @@
         <v>41.96591330125367</v>
       </c>
       <c r="AG24" t="n">
-        <v>69.94876074484854</v>
+        <v>69.94876074484853</v>
       </c>
       <c r="AH24" t="n">
         <v>29.8235202192928</v>
@@ -3358,7 +3358,7 @@
         <v>38.36222983246824</v>
       </c>
       <c r="AK24" t="n">
-        <v>34.35005050425367</v>
+        <v>34.35005050425366</v>
       </c>
       <c r="AL24" t="n">
         <v>24.24545639045375</v>
@@ -3372,7 +3372,7 @@
         <v>5.930805927847078</v>
       </c>
       <c r="B25" t="n">
-        <v>0.07273399415570718</v>
+        <v>0.07273399415570715</v>
       </c>
       <c r="C25" t="n">
         <v>22.82637765134177</v>
@@ -3393,7 +3393,7 @@
         <v>0.3475474679169728</v>
       </c>
       <c r="I25" t="n">
-        <v>32.2894260847185</v>
+        <v>32.28942608471851</v>
       </c>
       <c r="J25" t="n">
         <v>3.206048561745377</v>
@@ -3405,19 +3405,19 @@
         <v>13.0467222827552</v>
       </c>
       <c r="M25" t="n">
-        <v>1.257366867304158</v>
+        <v>1.25736686730416</v>
       </c>
       <c r="N25" t="n">
-        <v>0.3450232218770948</v>
+        <v>0.3450232218770943</v>
       </c>
       <c r="O25" t="n">
-        <v>2.597249391802691</v>
+        <v>2.597249391802693</v>
       </c>
       <c r="P25" t="n">
         <v>18.1917748534493</v>
       </c>
       <c r="Q25" t="n">
-        <v>10.92289568197045</v>
+        <v>10.92289568197044</v>
       </c>
       <c r="R25" t="n">
         <v>25.8590501836806</v>
@@ -3426,7 +3426,7 @@
         <v>26.59883811453454</v>
       </c>
       <c r="T25" t="n">
-        <v>18.67910521178752</v>
+        <v>18.67910521178753</v>
       </c>
       <c r="U25" t="n">
         <v>33.48889809854062</v>
@@ -3450,13 +3450,13 @@
         <v>43.87871994326308</v>
       </c>
       <c r="AB25" t="n">
-        <v>8.923384169600727</v>
+        <v>8.923384169600721</v>
       </c>
       <c r="AC25" t="n">
-        <v>5.027415072728052</v>
+        <v>5.027415072728054</v>
       </c>
       <c r="AD25" t="n">
-        <v>13.60183621296857</v>
+        <v>13.60183621296856</v>
       </c>
       <c r="AE25" t="n">
         <v>54.18413535520814</v>
@@ -3471,7 +3471,7 @@
         <v>28.33944494766828</v>
       </c>
       <c r="AI25" t="n">
-        <v>20.2986137744925</v>
+        <v>20.29861377449249</v>
       </c>
       <c r="AJ25" t="n">
         <v>36.97637042409188</v>
@@ -3480,7 +3480,7 @@
         <v>31.18035564535592</v>
       </c>
       <c r="AL25" t="n">
-        <v>21.537336849689</v>
+        <v>21.53733684968901</v>
       </c>
       <c r="AM25" t="n">
         <v>41.53201640312793</v>
@@ -3491,7 +3491,7 @@
         <v>5.237826506704893</v>
       </c>
       <c r="B26" t="n">
-        <v>0.01496555626084661</v>
+        <v>0.01496555626084659</v>
       </c>
       <c r="C26" t="n">
         <v>19.63542676271163</v>
@@ -3512,7 +3512,7 @@
         <v>0.3020226073087077</v>
       </c>
       <c r="I26" t="n">
-        <v>31.34413824235096</v>
+        <v>31.34413824235097</v>
       </c>
       <c r="J26" t="n">
         <v>3.098868818826933</v>
@@ -3524,10 +3524,10 @@
         <v>13.10584231347095</v>
       </c>
       <c r="M26" t="n">
-        <v>1.291898999312269</v>
+        <v>1.291898999312272</v>
       </c>
       <c r="N26" t="n">
-        <v>0.4269286909935341</v>
+        <v>0.4269286909935337</v>
       </c>
       <c r="O26" t="n">
         <v>2.5953486827663</v>
@@ -3536,16 +3536,16 @@
         <v>11.50619564523134</v>
       </c>
       <c r="Q26" t="n">
-        <v>6.174696307367803</v>
+        <v>6.1746963073678</v>
       </c>
       <c r="R26" t="n">
-        <v>17.77812113914717</v>
+        <v>17.77812113914716</v>
       </c>
       <c r="S26" t="n">
-        <v>14.08824452200723</v>
+        <v>14.08824452200722</v>
       </c>
       <c r="T26" t="n">
-        <v>6.566553569524501</v>
+        <v>6.566553569524515</v>
       </c>
       <c r="U26" t="n">
         <v>21.00472134288204</v>
@@ -3569,13 +3569,13 @@
         <v>36.26847690845297</v>
       </c>
       <c r="AB26" t="n">
-        <v>9.808570263343611</v>
+        <v>9.80857026334361</v>
       </c>
       <c r="AC26" t="n">
         <v>5.558979651815255</v>
       </c>
       <c r="AD26" t="n">
-        <v>15.14762001742615</v>
+        <v>15.14762001742616</v>
       </c>
       <c r="AE26" t="n">
         <v>52.4820729799056</v>
@@ -3622,16 +3622,16 @@
         <v>1.99822935259975</v>
       </c>
       <c r="F27" t="n">
-        <v>60.56359910267399</v>
+        <v>60.56359910267398</v>
       </c>
       <c r="G27" t="n">
         <v>27.18854776303181</v>
       </c>
       <c r="H27" t="n">
-        <v>0.942940902449047</v>
+        <v>0.9429409024490469</v>
       </c>
       <c r="I27" t="n">
-        <v>72.88915629263637</v>
+        <v>72.88915629263636</v>
       </c>
       <c r="J27" t="n">
         <v>7.529319937935561</v>
@@ -3652,7 +3652,7 @@
         <v>22.86507727140383</v>
       </c>
       <c r="P27" t="n">
-        <v>76.98978629828348</v>
+        <v>76.98978629828346</v>
       </c>
       <c r="Q27" t="n">
         <v>59.08115848375878</v>
@@ -3661,10 +3661,10 @@
         <v>91.32485761941007</v>
       </c>
       <c r="S27" t="n">
-        <v>99.2348517045592</v>
+        <v>99.23485170455922</v>
       </c>
       <c r="T27" t="n">
-        <v>91.82392740868247</v>
+        <v>91.82392740868245</v>
       </c>
       <c r="U27" t="n">
         <v>104.393404979625</v>
@@ -3673,7 +3673,7 @@
         <v>91.89911856858623</v>
       </c>
       <c r="W27" t="n">
-        <v>80.23803381588586</v>
+        <v>80.23803381588587</v>
       </c>
       <c r="X27" t="n">
         <v>100.1579536833327</v>
@@ -3688,7 +3688,7 @@
         <v>101.9180360130668</v>
       </c>
       <c r="AB27" t="n">
-        <v>37.71531242651618</v>
+        <v>37.71531242651619</v>
       </c>
       <c r="AC27" t="n">
         <v>26.79435922636958</v>
@@ -3715,7 +3715,7 @@
         <v>99.77743929204362</v>
       </c>
       <c r="AK27" t="n">
-        <v>86.09432552496592</v>
+        <v>86.09432552496594</v>
       </c>
       <c r="AL27" t="n">
         <v>70.04140128529536</v>
@@ -3753,7 +3753,7 @@
         <v>46.13114851957324</v>
       </c>
       <c r="J28" t="n">
-        <v>4.661997649494191</v>
+        <v>4.661997649494192</v>
       </c>
       <c r="K28" t="n">
         <v>0.01731112542219186</v>
@@ -3762,16 +3762,16 @@
         <v>18.83162784113359</v>
       </c>
       <c r="M28" t="n">
-        <v>6.059970561265367</v>
+        <v>6.059970561265366</v>
       </c>
       <c r="N28" t="n">
-        <v>3.042900327917014</v>
+        <v>3.042900327917013</v>
       </c>
       <c r="O28" t="n">
         <v>9.681782714277716</v>
       </c>
       <c r="P28" t="n">
-        <v>40.39182364306067</v>
+        <v>40.39182364306068</v>
       </c>
       <c r="Q28" t="n">
         <v>28.91992433224722</v>
@@ -3786,10 +3786,10 @@
         <v>47.12442342151786</v>
       </c>
       <c r="U28" t="n">
-        <v>61.49110658772721</v>
+        <v>61.4911065877272</v>
       </c>
       <c r="V28" t="n">
-        <v>46.06362134332323</v>
+        <v>46.06362134332324</v>
       </c>
       <c r="W28" t="n">
         <v>37.99490638269727</v>
@@ -3848,7 +3848,7 @@
         <v>4.386471790248398</v>
       </c>
       <c r="B29" t="n">
-        <v>0.01678230827160679</v>
+        <v>0.01678230827160676</v>
       </c>
       <c r="C29" t="n">
         <v>16.37452251030894</v>
@@ -3863,16 +3863,16 @@
         <v>23.07032131643271</v>
       </c>
       <c r="G29" t="n">
-        <v>9.476097180420835</v>
+        <v>9.476097180420833</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2647882869323064</v>
+        <v>0.2647882869323063</v>
       </c>
       <c r="I29" t="n">
         <v>27.39617565316261</v>
       </c>
       <c r="J29" t="n">
-        <v>2.634338783533869</v>
+        <v>2.634338783533868</v>
       </c>
       <c r="K29" t="n">
         <v>0.01904560104551194</v>
@@ -3881,13 +3881,13 @@
         <v>11.56279216844656</v>
       </c>
       <c r="M29" t="n">
-        <v>0.5833914277919572</v>
+        <v>0.5833914277919598</v>
       </c>
       <c r="N29" t="n">
-        <v>0.04584159210478855</v>
+        <v>0.04584159210478811</v>
       </c>
       <c r="O29" t="n">
-        <v>1.561168531720007</v>
+        <v>1.561168531720005</v>
       </c>
       <c r="P29" t="n">
         <v>3.450810630556006</v>
@@ -3899,10 +3899,10 @@
         <v>8.304523071277934</v>
       </c>
       <c r="S29" t="n">
-        <v>0.9499573237898602</v>
+        <v>0.9499573237898531</v>
       </c>
       <c r="T29" t="n">
-        <v>-6.542116211514788</v>
+        <v>-6.542116211514774</v>
       </c>
       <c r="U29" t="n">
         <v>8.225537215868698</v>
@@ -3923,10 +3923,10 @@
         <v>6.018023144515602</v>
       </c>
       <c r="AA29" t="n">
-        <v>27.78312100604285</v>
+        <v>27.78312100604284</v>
       </c>
       <c r="AB29" t="n">
-        <v>8.959083152082364</v>
+        <v>8.959083152082361</v>
       </c>
       <c r="AC29" t="n">
         <v>4.599577980109473</v>
@@ -4000,7 +4000,7 @@
         <v>18.39525386493652</v>
       </c>
       <c r="M30" t="n">
-        <v>5.42013173281204</v>
+        <v>5.420131732812042</v>
       </c>
       <c r="N30" t="n">
         <v>2.74082571481233</v>
@@ -4018,16 +4018,16 @@
         <v>41.4670535741754</v>
       </c>
       <c r="S30" t="n">
-        <v>42.14206672804833</v>
+        <v>42.14206672804832</v>
       </c>
       <c r="T30" t="n">
-        <v>34.58921448344307</v>
+        <v>34.58921448344308</v>
       </c>
       <c r="U30" t="n">
         <v>48.51008842355009</v>
       </c>
       <c r="V30" t="n">
-        <v>34.24986971309699</v>
+        <v>34.24986971309698</v>
       </c>
       <c r="W30" t="n">
         <v>27.12638453133696</v>
@@ -4113,7 +4113,7 @@
         <v>6.338033398693994</v>
       </c>
       <c r="K31" t="n">
-        <v>0.05360855227798448</v>
+        <v>0.05360855227798449</v>
       </c>
       <c r="L31" t="n">
         <v>25.44905079519195</v>
@@ -4176,7 +4176,7 @@
         <v>72.74752339280245</v>
       </c>
       <c r="AF31" t="n">
-        <v>58.65514020349758</v>
+        <v>58.65514020349757</v>
       </c>
       <c r="AG31" t="n">
         <v>84.32041464311723</v>
@@ -4217,7 +4217,7 @@
         <v>1.635594659490174</v>
       </c>
       <c r="F32" t="n">
-        <v>54.50832130005704</v>
+        <v>54.50832130005705</v>
       </c>
       <c r="G32" t="n">
         <v>23.85289959574686</v>
@@ -4250,7 +4250,7 @@
         <v>70.6789137086818</v>
       </c>
       <c r="Q32" t="n">
-        <v>53.00522523531488</v>
+        <v>53.00522523531487</v>
       </c>
       <c r="R32" t="n">
         <v>85.10319547635784</v>
@@ -4259,7 +4259,7 @@
         <v>96.75269696156238</v>
       </c>
       <c r="T32" t="n">
-        <v>88.7931035808804</v>
+        <v>88.79310358088038</v>
       </c>
       <c r="U32" t="n">
         <v>102.2321323964944</v>
@@ -4283,7 +4283,7 @@
         <v>96.88216948375735</v>
       </c>
       <c r="AB32" t="n">
-        <v>29.43390407908453</v>
+        <v>29.43390407908454</v>
       </c>
       <c r="AC32" t="n">
         <v>20.77245743233117</v>
@@ -4357,7 +4357,7 @@
         <v>25.28053910080838</v>
       </c>
       <c r="M33" t="n">
-        <v>10.90377550106677</v>
+        <v>10.90377550106676</v>
       </c>
       <c r="N33" t="n">
         <v>5.78818492542737</v>
@@ -4375,22 +4375,22 @@
         <v>75.71685422891528</v>
       </c>
       <c r="S33" t="n">
-        <v>83.69162309104541</v>
+        <v>83.69162309104543</v>
       </c>
       <c r="T33" t="n">
-        <v>75.91381813702691</v>
+        <v>75.91381813702689</v>
       </c>
       <c r="U33" t="n">
-        <v>89.37221465461553</v>
+        <v>89.37221465461552</v>
       </c>
       <c r="V33" t="n">
-        <v>75.13288365772259</v>
+        <v>75.1328836577226</v>
       </c>
       <c r="W33" t="n">
         <v>64.75151055736008</v>
       </c>
       <c r="X33" t="n">
-        <v>83.02551888528804</v>
+        <v>83.02551888528802</v>
       </c>
       <c r="Y33" t="n">
         <v>79.38455273769225</v>
@@ -4414,7 +4414,7 @@
         <v>73.97651605463957</v>
       </c>
       <c r="AF33" t="n">
-        <v>60.24869612606837</v>
+        <v>60.24869612606836</v>
       </c>
       <c r="AG33" t="n">
         <v>85.315398169887</v>
@@ -4426,7 +4426,7 @@
         <v>67.13491182816897</v>
       </c>
       <c r="AJ33" t="n">
-        <v>85.92237711231773</v>
+        <v>85.92237711231772</v>
       </c>
       <c r="AK33" t="n">
         <v>72.00657396436381</v>
@@ -4435,7 +4435,7 @@
         <v>57.48882563968126</v>
       </c>
       <c r="AM33" t="n">
-        <v>83.04843437687511</v>
+        <v>83.04843437687512</v>
       </c>
     </row>
     <row r="34">
@@ -4455,7 +4455,7 @@
         <v>1.454229418424858</v>
       </c>
       <c r="F34" t="n">
-        <v>44.61871746314827</v>
+        <v>44.61871746314826</v>
       </c>
       <c r="G34" t="n">
         <v>19.52119961873607</v>
@@ -4527,7 +4527,7 @@
         <v>17.24618584873055</v>
       </c>
       <c r="AD34" t="n">
-        <v>33.94141352536028</v>
+        <v>33.94141352536029</v>
       </c>
       <c r="AE34" t="n">
         <v>67.89359626001529</v>
@@ -4548,7 +4548,7 @@
         <v>64.08936613434582</v>
       </c>
       <c r="AK34" t="n">
-        <v>57.83915583628773</v>
+        <v>57.83915583628774</v>
       </c>
       <c r="AL34" t="n">
         <v>45.13722498345264</v>
@@ -4580,7 +4580,7 @@
         <v>12.93295218569499</v>
       </c>
       <c r="H35" t="n">
-        <v>0.4310592717473864</v>
+        <v>0.4310592717473863</v>
       </c>
       <c r="I35" t="n">
         <v>36.38584639980017</v>
@@ -4595,10 +4595,10 @@
         <v>14.97587477102461</v>
       </c>
       <c r="M35" t="n">
-        <v>3.307947245915264</v>
+        <v>3.307947245915266</v>
       </c>
       <c r="N35" t="n">
-        <v>1.528568462854089</v>
+        <v>1.528568462854088</v>
       </c>
       <c r="O35" t="n">
         <v>5.615424615096066</v>
@@ -4616,10 +4616,10 @@
         <v>27.98003230155206</v>
       </c>
       <c r="T35" t="n">
-        <v>20.17646143640863</v>
+        <v>20.17646143640864</v>
       </c>
       <c r="U35" t="n">
-        <v>34.89868870923071</v>
+        <v>34.8986887092307</v>
       </c>
       <c r="V35" t="n">
         <v>19.70490191820793</v>
@@ -4714,7 +4714,7 @@
         <v>18.33613383422077</v>
       </c>
       <c r="M36" t="n">
-        <v>5.38559960080393</v>
+        <v>5.385599600803929</v>
       </c>
       <c r="N36" t="n">
         <v>2.65892024569589</v>
@@ -4723,7 +4723,7 @@
         <v>8.679758311781788</v>
       </c>
       <c r="P36" t="n">
-        <v>39.18029914327541</v>
+        <v>39.18029914327542</v>
       </c>
       <c r="Q36" t="n">
         <v>27.75015085655824</v>
@@ -4759,7 +4759,7 @@
         <v>65.08786802053501</v>
       </c>
       <c r="AB36" t="n">
-        <v>17.12298086659909</v>
+        <v>17.12298086659908</v>
       </c>
       <c r="AC36" t="n">
         <v>11.30857402292311</v>
@@ -4797,10 +4797,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>5.469995311584834</v>
+        <v>5.469995311584835</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0593956019885518</v>
+        <v>0.05939560198855177</v>
       </c>
       <c r="C37" t="n">
         <v>20.46837293037655</v>
@@ -4833,10 +4833,10 @@
         <v>13.38000108661832</v>
       </c>
       <c r="M37" t="n">
-        <v>1.952536211160309</v>
+        <v>1.952536211160312</v>
       </c>
       <c r="N37" t="n">
-        <v>0.7951062760578447</v>
+        <v>0.7951062760578442</v>
       </c>
       <c r="O37" t="n">
         <v>3.591322077359433</v>
@@ -4845,19 +4845,19 @@
         <v>12.68606388368217</v>
       </c>
       <c r="Q37" t="n">
-        <v>7.316086549306902</v>
+        <v>7.316086549306899</v>
       </c>
       <c r="R37" t="n">
         <v>18.90901970120294</v>
       </c>
       <c r="S37" t="n">
-        <v>14.48429814459606</v>
+        <v>14.48429814459605</v>
       </c>
       <c r="T37" t="n">
-        <v>6.874518696743372</v>
+        <v>6.87451869674338</v>
       </c>
       <c r="U37" t="n">
-        <v>21.54192955883333</v>
+        <v>21.54192955883332</v>
       </c>
       <c r="V37" t="n">
         <v>6.770180092305004</v>
@@ -4878,13 +4878,13 @@
         <v>37.37663760827981</v>
       </c>
       <c r="AB37" t="n">
-        <v>11.4049054644928</v>
+        <v>11.40490546449279</v>
       </c>
       <c r="AC37" t="n">
-        <v>6.544206093222412</v>
+        <v>6.544206093222413</v>
       </c>
       <c r="AD37" t="n">
-        <v>17.16074359750415</v>
+        <v>17.16074359750416</v>
       </c>
       <c r="AE37" t="n">
         <v>53.58504277405621</v>
@@ -4899,13 +4899,13 @@
         <v>19.21440885832324</v>
       </c>
       <c r="AI37" t="n">
-        <v>11.53540744313905</v>
+        <v>11.53540744313904</v>
       </c>
       <c r="AJ37" t="n">
         <v>27.73231353620743</v>
       </c>
       <c r="AK37" t="n">
-        <v>28.01617484295478</v>
+        <v>28.01617484295479</v>
       </c>
       <c r="AL37" t="n">
         <v>18.841188064457</v>
@@ -4955,7 +4955,7 @@
         <v>12.33491991367002</v>
       </c>
       <c r="N38" t="n">
-        <v>6.65096007281049</v>
+        <v>6.650960072810491</v>
       </c>
       <c r="O38" t="n">
         <v>18.82482391286975</v>
@@ -4967,7 +4967,7 @@
         <v>49.51194903765084</v>
       </c>
       <c r="R38" t="n">
-        <v>78.32767863473353</v>
+        <v>78.32767863473352</v>
       </c>
       <c r="S38" t="n">
         <v>84.79258364702473</v>
@@ -5021,13 +5021,13 @@
         <v>68.46336428768598</v>
       </c>
       <c r="AJ38" t="n">
-        <v>87.16453493820859</v>
+        <v>87.1645349382086</v>
       </c>
       <c r="AK38" t="n">
         <v>75.07405207449688</v>
       </c>
       <c r="AL38" t="n">
-        <v>60.4237502610693</v>
+        <v>60.42375026106929</v>
       </c>
       <c r="AM38" t="n">
         <v>86.10677138880369</v>
@@ -5050,7 +5050,7 @@
         <v>1.309532713669547</v>
       </c>
       <c r="F39" t="n">
-        <v>39.59231087732096</v>
+        <v>39.59231087732095</v>
       </c>
       <c r="G39" t="n">
         <v>16.78738848322507</v>
@@ -5062,7 +5062,7 @@
         <v>46.29945699118775</v>
       </c>
       <c r="J39" t="n">
-        <v>4.649696856302365</v>
+        <v>4.649696856302364</v>
       </c>
       <c r="K39" t="n">
         <v>0.04345267037272219</v>
@@ -5071,7 +5071,7 @@
         <v>19.38624187876217</v>
       </c>
       <c r="M39" t="n">
-        <v>6.768873653734914</v>
+        <v>6.768873653734915</v>
       </c>
       <c r="N39" t="n">
         <v>3.508785879254576</v>
@@ -5083,7 +5083,7 @@
         <v>34.91776893462796</v>
       </c>
       <c r="Q39" t="n">
-        <v>25.34149843333355</v>
+        <v>25.34149843333356</v>
       </c>
       <c r="R39" t="n">
         <v>43.81610751871361</v>
@@ -5092,7 +5092,7 @@
         <v>43.0113873009264</v>
       </c>
       <c r="T39" t="n">
-        <v>35.43452907506661</v>
+        <v>35.43452907506662</v>
       </c>
       <c r="U39" t="n">
         <v>49.50377124058716</v>
@@ -5104,10 +5104,10 @@
         <v>28.38463179919729</v>
       </c>
       <c r="X39" t="n">
-        <v>42.03508056004277</v>
+        <v>42.03508056004276</v>
       </c>
       <c r="Y39" t="n">
-        <v>49.16816965438833</v>
+        <v>49.16816965438834</v>
       </c>
       <c r="Z39" t="n">
         <v>37.84265784857691</v>
@@ -5119,7 +5119,7 @@
         <v>21.24695003059199</v>
       </c>
       <c r="AC39" t="n">
-        <v>13.97917142128657</v>
+        <v>13.97917142128656</v>
       </c>
       <c r="AD39" t="n">
         <v>29.00410743770495</v>
@@ -5128,7 +5128,7 @@
         <v>63.51273884069354</v>
       </c>
       <c r="AF39" t="n">
-        <v>49.50622739074105</v>
+        <v>49.50622739074106</v>
       </c>
       <c r="AG39" t="n">
         <v>76.1444227392187</v>
@@ -5143,7 +5143,7 @@
         <v>52.21729201219414</v>
       </c>
       <c r="AK39" t="n">
-        <v>48.43780206485578</v>
+        <v>48.43780206485579</v>
       </c>
       <c r="AL39" t="n">
         <v>36.79803203606785</v>
@@ -5157,16 +5157,16 @@
         <v>4.847282406510641</v>
       </c>
       <c r="B40" t="n">
-        <v>0.03012070043876217</v>
+        <v>0.03012070043876214</v>
       </c>
       <c r="C40" t="n">
         <v>18.73252723127416</v>
       </c>
       <c r="D40" t="n">
-        <v>9.745340983002302</v>
+        <v>9.745340983002301</v>
       </c>
       <c r="E40" t="n">
-        <v>0.5321938738351391</v>
+        <v>0.5321938738351392</v>
       </c>
       <c r="F40" t="n">
         <v>23.13708407589396</v>
@@ -5190,16 +5190,16 @@
         <v>11.22951336458344</v>
       </c>
       <c r="M40" t="n">
-        <v>-0.1117779160641934</v>
+        <v>-0.1117779160641916</v>
       </c>
       <c r="N40" t="n">
-        <v>-0.4042414620759613</v>
+        <v>-0.4042414620759618</v>
       </c>
       <c r="O40" t="n">
-        <v>0.567095846163264</v>
+        <v>0.5670958461632658</v>
       </c>
       <c r="P40" t="n">
-        <v>8.956521600323128</v>
+        <v>8.956521600323136</v>
       </c>
       <c r="Q40" t="n">
         <v>3.721616420990337</v>
@@ -5208,22 +5208,22 @@
         <v>15.2545535537556</v>
       </c>
       <c r="S40" t="n">
-        <v>13.06449729372834</v>
+        <v>13.06449729372833</v>
       </c>
       <c r="T40" t="n">
-        <v>5.262470303529355</v>
+        <v>5.262470303529369</v>
       </c>
       <c r="U40" t="n">
         <v>20.172505755576</v>
       </c>
       <c r="V40" t="n">
-        <v>4.385821051893942</v>
+        <v>4.385821051893949</v>
       </c>
       <c r="W40" t="n">
         <v>-0.3931962988482525</v>
       </c>
       <c r="X40" t="n">
-        <v>9.969285914103359</v>
+        <v>9.969285914103352</v>
       </c>
       <c r="Y40" t="n">
         <v>23.03061165630447</v>
@@ -5235,7 +5235,7 @@
         <v>34.28520334102611</v>
       </c>
       <c r="AB40" t="n">
-        <v>6.477561857190294</v>
+        <v>6.477561857190288</v>
       </c>
       <c r="AC40" t="n">
         <v>3.082786959615113</v>
@@ -5288,7 +5288,7 @@
         <v>0.8505393961662979</v>
       </c>
       <c r="F41" t="n">
-        <v>36.02503588087412</v>
+        <v>36.02503588087413</v>
       </c>
       <c r="G41" t="n">
         <v>16.33735255342459</v>
@@ -5309,7 +5309,7 @@
         <v>18.28331029483887</v>
       </c>
       <c r="M41" t="n">
-        <v>4.738696137569288</v>
+        <v>4.738696137569287</v>
       </c>
       <c r="N41" t="n">
         <v>2.306545157788392</v>
@@ -5428,16 +5428,16 @@
         <v>23.46333018263662</v>
       </c>
       <c r="M42" t="n">
-        <v>9.534630717698414</v>
+        <v>9.534630717698413</v>
       </c>
       <c r="N42" t="n">
         <v>5.038920241474313</v>
       </c>
       <c r="O42" t="n">
-        <v>14.75431551482169</v>
+        <v>14.7543155148217</v>
       </c>
       <c r="P42" t="n">
-        <v>53.45158796354915</v>
+        <v>53.45158796354914</v>
       </c>
       <c r="Q42" t="n">
         <v>39.80082342279352</v>
@@ -5449,7 +5449,7 @@
         <v>70.15728227023922</v>
       </c>
       <c r="T42" t="n">
-        <v>62.49718322876875</v>
+        <v>62.49718322876874</v>
       </c>
       <c r="U42" t="n">
         <v>76.0558223116509</v>
@@ -5485,7 +5485,7 @@
         <v>70.44658269409538</v>
       </c>
       <c r="AF42" t="n">
-        <v>56.58006475929</v>
+        <v>56.58006475928999</v>
       </c>
       <c r="AG42" t="n">
         <v>82.2278149442849</v>
@@ -5514,7 +5514,7 @@
         <v>7.79541764957202</v>
       </c>
       <c r="B43" t="n">
-        <v>0.08503699951682107</v>
+        <v>0.08503699951682106</v>
       </c>
       <c r="C43" t="n">
         <v>28.72602713428432</v>
@@ -5547,7 +5547,7 @@
         <v>18.61658909870199</v>
       </c>
       <c r="M43" t="n">
-        <v>5.433865481425437</v>
+        <v>5.433865481425439</v>
       </c>
       <c r="N43" t="n">
         <v>2.756628211969142</v>
@@ -5565,7 +5565,7 @@
         <v>41.51068198438873</v>
       </c>
       <c r="S43" t="n">
-        <v>42.18067339189853</v>
+        <v>42.18067339189852</v>
       </c>
       <c r="T43" t="n">
         <v>34.70390665203598</v>
@@ -5633,7 +5633,7 @@
         <v>9.57192059205064</v>
       </c>
       <c r="B44" t="n">
-        <v>0.1854187311286266</v>
+        <v>0.1854187311286267</v>
       </c>
       <c r="C44" t="n">
         <v>36.01082844298207</v>
@@ -5645,7 +5645,7 @@
         <v>1.141782527466887</v>
       </c>
       <c r="F44" t="n">
-        <v>42.20565830942648</v>
+        <v>42.20565830942649</v>
       </c>
       <c r="G44" t="n">
         <v>18.35905000595258</v>
@@ -5666,7 +5666,7 @@
         <v>20.37467798615799</v>
       </c>
       <c r="M44" t="n">
-        <v>6.768478132785679</v>
+        <v>6.768478132785678</v>
       </c>
       <c r="N44" t="n">
         <v>3.423987426805759</v>
@@ -5687,10 +5687,10 @@
         <v>68.22560780523204</v>
       </c>
       <c r="T44" t="n">
-        <v>60.23309320255716</v>
+        <v>60.23309320255715</v>
       </c>
       <c r="U44" t="n">
-        <v>74.27029071474055</v>
+        <v>74.27029071474054</v>
       </c>
       <c r="V44" t="n">
         <v>58.69283259573194</v>
@@ -5738,10 +5738,10 @@
         <v>72.01941440509667</v>
       </c>
       <c r="AK44" t="n">
-        <v>57.88475015417347</v>
+        <v>57.88475015417346</v>
       </c>
       <c r="AL44" t="n">
-        <v>45.01185168760825</v>
+        <v>45.01185168760826</v>
       </c>
       <c r="AM44" t="n">
         <v>68.77729558051122</v>
@@ -5764,7 +5764,7 @@
         <v>1.562289516543849</v>
       </c>
       <c r="F45" t="n">
-        <v>49.35657008829432</v>
+        <v>49.35657008829431</v>
       </c>
       <c r="G45" t="n">
         <v>22.43303917499282</v>
@@ -5836,7 +5836,7 @@
         <v>20.5974902444055</v>
       </c>
       <c r="AD45" t="n">
-        <v>38.92309152820351</v>
+        <v>38.92309152820352</v>
       </c>
       <c r="AE45" t="n">
         <v>72.21144224549377</v>
@@ -5857,7 +5857,7 @@
         <v>75.93748999274993</v>
       </c>
       <c r="AK45" t="n">
-        <v>67.22347348292557</v>
+        <v>67.22347348292558</v>
       </c>
       <c r="AL45" t="n">
         <v>53.51421877760798</v>
@@ -5898,7 +5898,7 @@
         <v>6.190660180437776</v>
       </c>
       <c r="K46" t="n">
-        <v>0.04609324608611871</v>
+        <v>0.04609324608611872</v>
       </c>
       <c r="L46" t="n">
         <v>24.73222155451366</v>
@@ -5907,13 +5907,13 @@
         <v>9.582501077370686</v>
       </c>
       <c r="N46" t="n">
-        <v>5.051829755298748</v>
+        <v>5.051829755298749</v>
       </c>
       <c r="O46" t="n">
         <v>14.79252227127486</v>
       </c>
       <c r="P46" t="n">
-        <v>60.32710473977366</v>
+        <v>60.32710473977365</v>
       </c>
       <c r="Q46" t="n">
         <v>44.71932219989543</v>
@@ -5940,7 +5940,7 @@
         <v>81.91723753027281</v>
       </c>
       <c r="Y46" t="n">
-        <v>77.46333952182188</v>
+        <v>77.46333952182187</v>
       </c>
       <c r="Z46" t="n">
         <v>65.80510710899711</v>
@@ -5961,7 +5961,7 @@
         <v>71.77057646633837</v>
       </c>
       <c r="AF46" t="n">
-        <v>57.5884350109424</v>
+        <v>57.58843501094239</v>
       </c>
       <c r="AG46" t="n">
         <v>83.50897960862346</v>
@@ -6011,7 +6011,7 @@
         <v>0.9551170170493106</v>
       </c>
       <c r="I47" t="n">
-        <v>75.34570688127492</v>
+        <v>75.34570688127491</v>
       </c>
       <c r="J47" t="n">
         <v>7.846476754972409</v>
@@ -6032,7 +6032,7 @@
         <v>22.8911820120514</v>
       </c>
       <c r="P47" t="n">
-        <v>83.80199055183914</v>
+        <v>83.80199055183913</v>
       </c>
       <c r="Q47" t="n">
         <v>63.94289079336093</v>
@@ -6095,10 +6095,10 @@
         <v>109.6425750928735</v>
       </c>
       <c r="AK47" t="n">
-        <v>90.79224538243359</v>
+        <v>90.79224538243361</v>
       </c>
       <c r="AL47" t="n">
-        <v>74.20501238122139</v>
+        <v>74.20501238122138</v>
       </c>
       <c r="AM47" t="n">
         <v>102.1974492348181</v>
@@ -6142,7 +6142,7 @@
         <v>18.89074787184935</v>
       </c>
       <c r="M48" t="n">
-        <v>6.094502693273477</v>
+        <v>6.094502693273479</v>
       </c>
       <c r="N48" t="n">
         <v>3.124805797033453</v>
@@ -6151,7 +6151,7 @@
         <v>9.679882005241323</v>
       </c>
       <c r="P48" t="n">
-        <v>33.70624443484271</v>
+        <v>33.70624443484272</v>
       </c>
       <c r="Q48" t="n">
         <v>24.17172495764457</v>
@@ -6169,7 +6169,7 @@
         <v>49.00692983206862</v>
       </c>
       <c r="V48" t="n">
-        <v>34.88156413546419</v>
+        <v>34.88156413546418</v>
       </c>
       <c r="W48" t="n">
         <v>27.75550816526713</v>
@@ -6214,7 +6214,7 @@
         <v>51.52436230800596</v>
       </c>
       <c r="AK48" t="n">
-        <v>46.85295463540691</v>
+        <v>46.85295463540692</v>
       </c>
       <c r="AL48" t="n">
         <v>35.44397226568548</v>
@@ -6228,13 +6228,13 @@
         <v>4.67660819293539</v>
       </c>
       <c r="B49" t="n">
-        <v>0.07237001773882859</v>
+        <v>0.07237001773882856</v>
       </c>
       <c r="C49" t="n">
         <v>18.53540840018621</v>
       </c>
       <c r="D49" t="n">
-        <v>9.486879945433303</v>
+        <v>9.486879945433301</v>
       </c>
       <c r="E49" t="n">
         <v>0.5475947911403909</v>
@@ -6249,7 +6249,7 @@
         <v>0.2685339224902964</v>
       </c>
       <c r="I49" t="n">
-        <v>24.98082380786278</v>
+        <v>24.98082380786279</v>
       </c>
       <c r="J49" t="n">
         <v>2.394277821410277</v>
@@ -6261,19 +6261,19 @@
         <v>9.848678422608753</v>
       </c>
       <c r="M49" t="n">
-        <v>-0.8410838709792197</v>
+        <v>-0.8410838709792179</v>
       </c>
       <c r="N49" t="n">
-        <v>-0.8514315329243338</v>
+        <v>-0.8514315329243347</v>
       </c>
       <c r="O49" t="n">
-        <v>-0.4591325879438433</v>
+        <v>-0.4591325879438415</v>
       </c>
       <c r="P49" t="n">
-        <v>7.618372055200176</v>
+        <v>7.618372055200183</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.438310010301851</v>
+        <v>2.438310010301848</v>
       </c>
       <c r="R49" t="n">
         <v>13.90551294063314</v>
@@ -6282,13 +6282,13 @@
         <v>12.47541035188848</v>
       </c>
       <c r="T49" t="n">
-        <v>4.381044333345983</v>
+        <v>4.38104433334599</v>
       </c>
       <c r="U49" t="n">
-        <v>19.83713157678849</v>
+        <v>19.83713157678848</v>
       </c>
       <c r="V49" t="n">
-        <v>3.101758931780779</v>
+        <v>3.101758931780793</v>
       </c>
       <c r="W49" t="n">
         <v>-1.55773201914738</v>
@@ -6297,7 +6297,7 @@
         <v>8.809148794854217</v>
       </c>
       <c r="Y49" t="n">
-        <v>21.97157806482493</v>
+        <v>21.97157806482494</v>
       </c>
       <c r="Z49" t="n">
         <v>10.9857448152199</v>
@@ -6306,7 +6306,7 @@
         <v>33.37124916805495</v>
       </c>
       <c r="AB49" t="n">
-        <v>4.765944986161982</v>
+        <v>4.765944986161976</v>
       </c>
       <c r="AC49" t="n">
         <v>1.676110677053101</v>
@@ -6318,7 +6318,7 @@
         <v>49.86628936972966</v>
       </c>
       <c r="AF49" t="n">
-        <v>35.22887903931366</v>
+        <v>35.22887903931367</v>
       </c>
       <c r="AG49" t="n">
         <v>64.47275953883414</v>
@@ -6330,7 +6330,7 @@
         <v>8.90465394946721</v>
       </c>
       <c r="AJ49" t="n">
-        <v>25.12824656568778</v>
+        <v>25.12824656568777</v>
       </c>
       <c r="AK49" t="n">
         <v>21.79603799871808</v>
@@ -6347,7 +6347,7 @@
         <v>5.494593148106711</v>
       </c>
       <c r="B50" t="n">
-        <v>0.09406734719966045</v>
+        <v>0.09406734719966042</v>
       </c>
       <c r="C50" t="n">
         <v>20.72270386500734</v>
@@ -6365,7 +6365,7 @@
         <v>10.93748205193928</v>
       </c>
       <c r="H50" t="n">
-        <v>0.360429559092847</v>
+        <v>0.3604295590928469</v>
       </c>
       <c r="I50" t="n">
         <v>31.32428749662976</v>
@@ -6380,16 +6380,16 @@
         <v>12.93733061908739</v>
       </c>
       <c r="M50" t="n">
-        <v>1.925068713933515</v>
+        <v>1.925068713933517</v>
       </c>
       <c r="N50" t="n">
-        <v>0.7635012817442202</v>
+        <v>0.7635012817442193</v>
       </c>
       <c r="O50" t="n">
-        <v>3.579220061553843</v>
+        <v>3.579220061553844</v>
       </c>
       <c r="P50" t="n">
-        <v>12.62275136101332</v>
+        <v>12.62275136101333</v>
       </c>
       <c r="Q50" t="n">
         <v>7.259320081807147</v>
@@ -6401,10 +6401,10 @@
         <v>14.40708481689565</v>
       </c>
       <c r="T50" t="n">
-        <v>6.645134359557566</v>
+        <v>6.645134359557581</v>
       </c>
       <c r="U50" t="n">
-        <v>21.62266317369884</v>
+        <v>21.62266317369883</v>
       </c>
       <c r="V50" t="n">
         <v>6.443996243432025</v>
@@ -6422,7 +6422,7 @@
         <v>15.14247584233781</v>
       </c>
       <c r="AA50" t="n">
-        <v>37.45432021902209</v>
+        <v>37.45432021902208</v>
       </c>
       <c r="AB50" t="n">
         <v>11.35879279654114</v>
@@ -6455,7 +6455,7 @@
         <v>28.05024709254301</v>
       </c>
       <c r="AL50" t="n">
-        <v>18.7655863709159</v>
+        <v>18.76558637091591</v>
       </c>
       <c r="AM50" t="n">
         <v>38.18330884751312</v>
@@ -6463,10 +6463,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>3.165643816621886</v>
+        <v>3.165643816621887</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.00709574961686385</v>
+        <v>-0.007095749616863878</v>
       </c>
       <c r="C51" t="n">
         <v>13.15716204673495</v>
@@ -6475,7 +6475,7 @@
         <v>5.882128680585723</v>
       </c>
       <c r="E51" t="n">
-        <v>0.1984793638724145</v>
+        <v>0.1984793638724146</v>
       </c>
       <c r="F51" t="n">
         <v>15.34230161620236</v>
@@ -6487,19 +6487,19 @@
         <v>0.1311134252794807</v>
       </c>
       <c r="I51" t="n">
-        <v>17.69207227672826</v>
+        <v>17.69207227672827</v>
       </c>
       <c r="J51" t="n">
-        <v>1.645110936937361</v>
+        <v>1.645110936937362</v>
       </c>
       <c r="K51" t="n">
-        <v>-0.03237025104388869</v>
+        <v>-0.03237025104388867</v>
       </c>
       <c r="L51" t="n">
         <v>6.819146256845874</v>
       </c>
       <c r="M51" t="n">
-        <v>-3.572704323883843</v>
+        <v>-3.572704323883841</v>
       </c>
       <c r="N51" t="n">
         <v>-2.384458878476449</v>
@@ -6508,7 +6508,7 @@
         <v>-4.49938594647792</v>
       </c>
       <c r="P51" t="n">
-        <v>-4.071586458830922</v>
+        <v>-4.071586458830915</v>
       </c>
       <c r="Q51" t="n">
         <v>-7.130899435806089</v>
@@ -6517,10 +6517,10 @@
         <v>0.9083339559565928</v>
       </c>
       <c r="S51" t="n">
-        <v>-1.966857705645999</v>
+        <v>-1.966857705646014</v>
       </c>
       <c r="T51" t="n">
-        <v>-9.995597335128622</v>
+        <v>-9.995597335128615</v>
       </c>
       <c r="U51" t="n">
         <v>5.567423224219546</v>
@@ -6532,10 +6532,10 @@
         <v>-14.98288988025939</v>
       </c>
       <c r="X51" t="n">
-        <v>-6.245410341388812</v>
+        <v>-6.245410341388805</v>
       </c>
       <c r="Y51" t="n">
-        <v>9.932304562199228</v>
+        <v>9.932304562199235</v>
       </c>
       <c r="Z51" t="n">
         <v>-0.3237716633817556</v>
@@ -6544,19 +6544,19 @@
         <v>21.67793508227771</v>
       </c>
       <c r="AB51" t="n">
-        <v>-0.9417167304742939</v>
+        <v>-0.941716730474301</v>
       </c>
       <c r="AC51" t="n">
         <v>-2.491840223567069</v>
       </c>
       <c r="AD51" t="n">
-        <v>1.714100457579885</v>
+        <v>1.714100457579882</v>
       </c>
       <c r="AE51" t="n">
         <v>44.31945072241406</v>
       </c>
       <c r="AF51" t="n">
-        <v>29.29512460492103</v>
+        <v>29.29512460492104</v>
       </c>
       <c r="AG51" t="n">
         <v>59.71641912117549</v>
@@ -6565,13 +6565,13 @@
         <v>3.580283169629283</v>
       </c>
       <c r="AI51" t="n">
-        <v>-3.122150394881956</v>
+        <v>-3.122150394881963</v>
       </c>
       <c r="AJ51" t="n">
         <v>12.51534221185275</v>
       </c>
       <c r="AK51" t="n">
-        <v>10.77576454824904</v>
+        <v>10.77576454824903</v>
       </c>
       <c r="AL51" t="n">
         <v>3.542692031307602</v>
@@ -6618,7 +6618,7 @@
         <v>23.1300513787735</v>
       </c>
       <c r="M52" t="n">
-        <v>8.839461373842264</v>
+        <v>8.839461373842262</v>
       </c>
       <c r="N52" t="n">
         <v>4.588837187293564</v>
@@ -6648,7 +6648,7 @@
         <v>72.74852461731153</v>
       </c>
       <c r="W52" t="n">
-        <v>62.46258059079287</v>
+        <v>62.46258059079286</v>
       </c>
       <c r="X52" t="n">
         <v>80.63590112267536</v>
@@ -6669,10 +6669,10 @@
         <v>16.52021656348003</v>
       </c>
       <c r="AD52" t="n">
-        <v>31.02733357719668</v>
+        <v>31.02733357719667</v>
       </c>
       <c r="AE52" t="n">
-        <v>71.04567527524733</v>
+        <v>71.04567527524732</v>
       </c>
       <c r="AF52" t="n">
         <v>57.04858054840282</v>
@@ -6690,7 +6690,7 @@
         <v>83.91543879099594</v>
       </c>
       <c r="AK52" t="n">
-        <v>67.30314005039953</v>
+        <v>67.30314005039952</v>
       </c>
       <c r="AL52" t="n">
         <v>53.31324378822249</v>
@@ -6704,10 +6704,10 @@
         <v>8.210559586288149</v>
       </c>
       <c r="B53" t="n">
-        <v>0.1045536005500142</v>
+        <v>0.1045536005500141</v>
       </c>
       <c r="C53" t="n">
-        <v>29.88325760035259</v>
+        <v>29.88325760035258</v>
       </c>
       <c r="D53" t="n">
         <v>17.47176558783546</v>
@@ -6731,13 +6731,13 @@
         <v>4.807179661891166</v>
       </c>
       <c r="K53" t="n">
-        <v>0.05293869278003125</v>
+        <v>0.05293869278003124</v>
       </c>
       <c r="L53" t="n">
         <v>20.05024758005857</v>
       </c>
       <c r="M53" t="n">
-        <v>6.810074899575106</v>
+        <v>6.810074899575108</v>
       </c>
       <c r="N53" t="n">
         <v>3.556193370725013</v>
@@ -6755,7 +6755,7 @@
         <v>43.94699274935362</v>
       </c>
       <c r="S53" t="n">
-        <v>43.12720729247702</v>
+        <v>43.12720729247701</v>
       </c>
       <c r="T53" t="n">
         <v>35.77860558084532</v>
@@ -6764,10 +6764,10 @@
         <v>49.38267081828889</v>
       </c>
       <c r="V53" t="n">
-        <v>36.00253433114086</v>
+        <v>36.00253433114085</v>
       </c>
       <c r="W53" t="n">
-        <v>28.78619086397402</v>
+        <v>28.78619086397401</v>
       </c>
       <c r="X53" t="n">
         <v>42.39867842508768</v>
@@ -6800,7 +6800,7 @@
         <v>76.00676137001167</v>
       </c>
       <c r="AH53" t="n">
-        <v>43.94279806855108</v>
+        <v>43.94279806855107</v>
       </c>
       <c r="AI53" t="n">
         <v>34.96663218265837</v>
@@ -6809,7 +6809,7 @@
         <v>52.1454412209514</v>
       </c>
       <c r="AK53" t="n">
-        <v>48.38669369047344</v>
+        <v>48.38669369047345</v>
       </c>
       <c r="AL53" t="n">
         <v>36.9114345763795</v>
@@ -6823,7 +6823,7 @@
         <v>3.995927690054144</v>
       </c>
       <c r="B54" t="n">
-        <v>0.03193745244952234</v>
+        <v>0.03193745244952231</v>
       </c>
       <c r="C54" t="n">
         <v>15.47162297887147</v>
@@ -6835,7 +6835,7 @@
         <v>0.5765149742872415</v>
       </c>
       <c r="F54" t="n">
-        <v>20.87905336393094</v>
+        <v>20.87905336393095</v>
       </c>
       <c r="G54" t="n">
         <v>7.999415176910251</v>
@@ -6844,19 +6844,19 @@
         <v>0.2313462483840316</v>
       </c>
       <c r="I54" t="n">
-        <v>23.65772027892749</v>
+        <v>23.6577202789275</v>
       </c>
       <c r="J54" t="n">
         <v>2.234603809962232</v>
       </c>
       <c r="K54" t="n">
-        <v>-0.002309026276425631</v>
+        <v>-0.002309026276425624</v>
       </c>
       <c r="L54" t="n">
         <v>9.686463219559043</v>
       </c>
       <c r="M54" t="n">
-        <v>-0.8202854875845063</v>
+        <v>-0.8202854875845036</v>
       </c>
       <c r="N54" t="n">
         <v>-0.7853285609647074</v>
@@ -6874,10 +6874,10 @@
         <v>5.780955485886373</v>
       </c>
       <c r="S54" t="n">
-        <v>-0.07378990448903266</v>
+        <v>-0.07378990448903977</v>
       </c>
       <c r="T54" t="n">
-        <v>-7.846199477509934</v>
+        <v>-7.846199477509927</v>
       </c>
       <c r="U54" t="n">
         <v>7.393321628562653</v>
@@ -6892,7 +6892,7 @@
         <v>-3.05925332457192</v>
       </c>
       <c r="Y54" t="n">
-        <v>13.93221416761092</v>
+        <v>13.93221416761093</v>
       </c>
       <c r="Z54" t="n">
         <v>3.619562829295148</v>
@@ -6901,7 +6901,7 @@
         <v>25.79984743861598</v>
       </c>
       <c r="AB54" t="n">
-        <v>5.628074745929045</v>
+        <v>5.628074745929039</v>
       </c>
       <c r="AC54" t="n">
         <v>2.123385287909331</v>
@@ -6913,7 +6913,7 @@
         <v>48.22723842827038</v>
       </c>
       <c r="AF54" t="n">
-        <v>33.56194537514175</v>
+        <v>33.56194537514176</v>
       </c>
       <c r="AG54" t="n">
         <v>62.96215925915055</v>
@@ -6922,7 +6922,7 @@
         <v>6.486888577255989</v>
       </c>
       <c r="AI54" t="n">
-        <v>-0.5070877564274312</v>
+        <v>-0.5070877564274383</v>
       </c>
       <c r="AJ54" t="n">
         <v>15.19125997361515</v>
@@ -6942,7 +6942,7 @@
         <v>5.274723261487708</v>
       </c>
       <c r="B55" t="n">
-        <v>0.06697317407750958</v>
+        <v>0.06697317407750955</v>
       </c>
       <c r="C55" t="n">
         <v>20.01692316465781</v>
@@ -6951,7 +6951,7 @@
         <v>11.2785855300518</v>
       </c>
       <c r="E55" t="n">
-        <v>0.757848285678872</v>
+        <v>0.7578482856788721</v>
       </c>
       <c r="F55" t="n">
         <v>26.19401391043952</v>
@@ -6960,25 +6960,25 @@
         <v>10.5551978916755</v>
       </c>
       <c r="H55" t="n">
-        <v>0.3270341668147089</v>
+        <v>0.3270341668147088</v>
       </c>
       <c r="I55" t="n">
-        <v>30.2106911826477</v>
+        <v>30.21069118264771</v>
       </c>
       <c r="J55" t="n">
         <v>2.941386013238131</v>
       </c>
       <c r="K55" t="n">
-        <v>0.007934668478713134</v>
+        <v>0.007934668478713137</v>
       </c>
       <c r="L55" t="n">
         <v>12.44183661217456</v>
       </c>
       <c r="M55" t="n">
-        <v>1.250697753472077</v>
+        <v>1.25069775347208</v>
       </c>
       <c r="N55" t="n">
-        <v>0.3795211995230972</v>
+        <v>0.3795211995230963</v>
       </c>
       <c r="O55" t="n">
         <v>2.577195659057915</v>
@@ -6996,7 +6996,7 @@
         <v>13.97242453045661</v>
       </c>
       <c r="T55" t="n">
-        <v>6.222477063745799</v>
+        <v>6.222477063745806</v>
       </c>
       <c r="U55" t="n">
         <v>21.12582176518031</v>
@@ -7011,7 +7011,7 @@
         <v>11.4411651341635</v>
       </c>
       <c r="Y55" t="n">
-        <v>25.01088106230144</v>
+        <v>25.01088106230145</v>
       </c>
       <c r="Z55" t="n">
         <v>14.37003875360958</v>
@@ -7020,7 +7020,7 @@
         <v>36.38500082456638</v>
       </c>
       <c r="AB55" t="n">
-        <v>9.739401261416134</v>
+        <v>9.739401261416132</v>
       </c>
       <c r="AC55" t="n">
         <v>5.306109747122342</v>
@@ -7032,7 +7032,7 @@
         <v>52.67110728143538</v>
       </c>
       <c r="AF55" t="n">
-        <v>38.1655692519714</v>
+        <v>38.16556925197141</v>
       </c>
       <c r="AG55" t="n">
         <v>66.81529039617742</v>
@@ -7041,7 +7041,7 @@
         <v>18.50314379032215</v>
       </c>
       <c r="AI55" t="n">
-        <v>10.87641149845298</v>
+        <v>10.87641149845297</v>
       </c>
       <c r="AJ55" t="n">
         <v>27.08728435951441</v>
@@ -7094,10 +7094,10 @@
         <v>24.34237462636462</v>
       </c>
       <c r="M56" t="n">
-        <v>10.20193704337854</v>
+        <v>10.20193704337853</v>
       </c>
       <c r="N56" t="n">
-        <v>5.372599848892622</v>
+        <v>5.372599848892621</v>
       </c>
       <c r="O56" t="n">
         <v>15.7703426421596</v>
@@ -7106,13 +7106,13 @@
         <v>61.41200419422121</v>
       </c>
       <c r="Q56" t="n">
-        <v>45.77556274058489</v>
+        <v>45.7755627405849</v>
       </c>
       <c r="R56" t="n">
         <v>74.4550704362195</v>
       </c>
       <c r="S56" t="n">
-        <v>83.17974947690597</v>
+        <v>83.17974947690598</v>
       </c>
       <c r="T56" t="n">
         <v>75.26177650402933</v>
@@ -7124,13 +7124,13 @@
         <v>74.17500538648241</v>
       </c>
       <c r="W56" t="n">
-        <v>63.85468088024544</v>
+        <v>63.85468088024543</v>
       </c>
       <c r="X56" t="n">
         <v>82.10778034273551</v>
       </c>
       <c r="Y56" t="n">
-        <v>78.36488993963044</v>
+        <v>78.36488993963046</v>
       </c>
       <c r="Z56" t="n">
         <v>65.72395805996132</v>
@@ -7145,7 +7145,7 @@
         <v>18.74353935098726</v>
       </c>
       <c r="AD56" t="n">
-        <v>35.18669648291636</v>
+        <v>35.18669648291635</v>
       </c>
       <c r="AE56" t="n">
         <v>73.06258056201875</v>
@@ -7160,7 +7160,7 @@
         <v>77.16188971965076</v>
       </c>
       <c r="AI56" t="n">
-        <v>66.4759158834829</v>
+        <v>66.47591588348291</v>
       </c>
       <c r="AJ56" t="n">
         <v>85.2773479356247</v>
@@ -7180,13 +7180,13 @@
         <v>12.33708270327583</v>
       </c>
       <c r="B57" t="n">
-        <v>0.2652484749011976</v>
+        <v>0.2652484749011977</v>
       </c>
       <c r="C57" t="n">
         <v>45.68004404758889</v>
       </c>
       <c r="D57" t="n">
-        <v>25.06376464778243</v>
+        <v>25.06376464778242</v>
       </c>
       <c r="E57" t="n">
         <v>1.598958052853855</v>
@@ -7204,10 +7204,10 @@
         <v>64.67646491675183</v>
       </c>
       <c r="J57" t="n">
-        <v>6.687465309595272</v>
+        <v>6.687465309595273</v>
       </c>
       <c r="K57" t="n">
-        <v>0.04368891096484541</v>
+        <v>0.0436889109648454</v>
       </c>
       <c r="L57" t="n">
         <v>26.60225401206731</v>
@@ -7225,22 +7225,22 @@
         <v>70.71056997001622</v>
       </c>
       <c r="Q57" t="n">
-        <v>53.03360846906476</v>
+        <v>53.03360846906475</v>
       </c>
       <c r="R57" t="n">
         <v>85.14682388657118</v>
       </c>
       <c r="S57" t="n">
-        <v>96.79130362541258</v>
+        <v>96.7913036254126</v>
       </c>
       <c r="T57" t="n">
-        <v>88.90779574947331</v>
+        <v>88.90779574947328</v>
       </c>
       <c r="U57" t="n">
         <v>102.1917655890616</v>
       </c>
       <c r="V57" t="n">
-        <v>87.5990029856948</v>
+        <v>87.59900298569481</v>
       </c>
       <c r="W57" t="n">
         <v>76.15544449508934</v>
@@ -7258,7 +7258,7 @@
         <v>96.84332817838622</v>
       </c>
       <c r="AB57" t="n">
-        <v>29.45696041306036</v>
+        <v>29.45696041306037</v>
       </c>
       <c r="AC57" t="n">
         <v>20.85674740056214</v>
@@ -7276,7 +7276,7 @@
         <v>87.54565923792634</v>
       </c>
       <c r="AH57" t="n">
-        <v>88.43610729690467</v>
+        <v>88.43610729690465</v>
       </c>
       <c r="AI57" t="n">
         <v>77.21087976382212</v>
@@ -7288,7 +7288,7 @@
         <v>78.28934125128035</v>
       </c>
       <c r="AL57" t="n">
-        <v>63.00649650598966</v>
+        <v>63.00649650598965</v>
       </c>
       <c r="AM57" t="n">
         <v>89.52822951075152</v>
@@ -7299,7 +7299,7 @@
         <v>5.457696393323896</v>
       </c>
       <c r="B58" t="n">
-        <v>0.04205972938299748</v>
+        <v>0.04205972938299744</v>
       </c>
       <c r="C58" t="n">
         <v>20.34120746306115</v>
@@ -7308,7 +7308,7 @@
         <v>11.68223549217958</v>
       </c>
       <c r="E58" t="n">
-        <v>0.7790839750099398</v>
+        <v>0.7790839750099399</v>
       </c>
       <c r="F58" t="n">
         <v>27.00109392600914</v>
@@ -7332,16 +7332,16 @@
         <v>13.60133632038378</v>
       </c>
       <c r="M58" t="n">
-        <v>1.966269959773706</v>
+        <v>1.966269959773709</v>
       </c>
       <c r="N58" t="n">
-        <v>0.8109087732146572</v>
+        <v>0.8109087732146567</v>
       </c>
       <c r="O58" t="n">
-        <v>3.597373085262228</v>
+        <v>3.597373085262229</v>
       </c>
       <c r="P58" t="n">
-        <v>12.71772014501659</v>
+        <v>12.7177201450166</v>
       </c>
       <c r="Q58" t="n">
         <v>7.344469783056777</v>
@@ -7350,10 +7350,10 @@
         <v>18.95264811141627</v>
       </c>
       <c r="S58" t="n">
-        <v>14.52290480844627</v>
+        <v>14.52290480844626</v>
       </c>
       <c r="T58" t="n">
-        <v>6.989210865336275</v>
+        <v>6.989210865336283</v>
       </c>
       <c r="U58" t="n">
         <v>21.50156275140057</v>
@@ -7362,7 +7362,7 @@
         <v>6.933272016741498</v>
       </c>
       <c r="W58" t="n">
-        <v>2.029586689311202</v>
+        <v>2.029586689311209</v>
       </c>
       <c r="X58" t="n">
         <v>12.48010296506433</v>
@@ -7380,7 +7380,7 @@
         <v>11.42796179846862</v>
       </c>
       <c r="AC58" t="n">
-        <v>6.628496061453383</v>
+        <v>6.628496061453384</v>
       </c>
       <c r="AD58" t="n">
         <v>17.20511551269205</v>
@@ -7398,7 +7398,7 @@
         <v>19.19902257441766</v>
       </c>
       <c r="AI58" t="n">
-        <v>11.54063772821149</v>
+        <v>11.54063772821148</v>
       </c>
       <c r="AJ58" t="n">
         <v>27.70836327245985</v>
@@ -7478,7 +7478,7 @@
         <v>75.06213949461383</v>
       </c>
       <c r="V59" t="n">
-        <v>60.7716810626488</v>
+        <v>60.77168106264879</v>
       </c>
       <c r="W59" t="n">
         <v>51.46020571784032</v>
@@ -7508,7 +7508,7 @@
         <v>68.36666597348071</v>
       </c>
       <c r="AF59" t="n">
-        <v>54.18322900917183</v>
+        <v>54.18322900917182</v>
       </c>
       <c r="AG59" t="n">
         <v>80.51317062915936</v>
@@ -7537,7 +7537,7 @@
         <v>4.215797576673148</v>
       </c>
       <c r="B60" t="n">
-        <v>0.05903162557167321</v>
+        <v>0.05903162557167317</v>
       </c>
       <c r="C60" t="n">
         <v>16.17740367922099</v>
@@ -7558,10 +7558,10 @@
         <v>0.2647416406621698</v>
       </c>
       <c r="I60" t="n">
-        <v>24.77131659290954</v>
+        <v>24.77131659290955</v>
       </c>
       <c r="J60" t="n">
-        <v>2.329482759688848</v>
+        <v>2.329482759688849</v>
       </c>
       <c r="K60" t="n">
         <v>0.002044272446337116</v>
@@ -7570,13 +7570,13 @@
         <v>10.18195722647187</v>
       </c>
       <c r="M60" t="n">
-        <v>-0.1459145271230691</v>
+        <v>-0.1459145271230664</v>
       </c>
       <c r="N60" t="n">
-        <v>-0.4013484787435839</v>
+        <v>-0.4013484787435848</v>
       </c>
       <c r="O60" t="n">
-        <v>0.5349400976128997</v>
+        <v>0.534940097612898</v>
       </c>
       <c r="P60" t="n">
         <v>2.112661085433054</v>
@@ -7588,10 +7588,10 @@
         <v>6.95548245815548</v>
       </c>
       <c r="S60" t="n">
-        <v>0.3608703819500079</v>
+        <v>0.3608703819499937</v>
       </c>
       <c r="T60" t="n">
-        <v>-7.423542181698167</v>
+        <v>-7.423542181698153</v>
       </c>
       <c r="U60" t="n">
         <v>7.890163037081187</v>
@@ -7606,28 +7606,28 @@
         <v>-2.383913358716001</v>
       </c>
       <c r="Y60" t="n">
-        <v>14.91250617225498</v>
+        <v>14.91250617225499</v>
       </c>
       <c r="Z60" t="n">
         <v>4.391999918023366</v>
       </c>
       <c r="AA60" t="n">
-        <v>26.86916683307169</v>
+        <v>26.86916683307168</v>
       </c>
       <c r="AB60" t="n">
-        <v>7.247466281054052</v>
+        <v>7.247466281054049</v>
       </c>
       <c r="AC60" t="n">
-        <v>3.192901697547461</v>
+        <v>3.192901697547459</v>
       </c>
       <c r="AD60" t="n">
-        <v>12.17906559466093</v>
+        <v>12.17906559466092</v>
       </c>
       <c r="AE60" t="n">
         <v>49.26719678857772</v>
       </c>
       <c r="AF60" t="n">
-        <v>34.76036325020083</v>
+        <v>34.76036325020084</v>
       </c>
       <c r="AG60" t="n">
         <v>63.81948141671332</v>
@@ -7645,7 +7645,7 @@
         <v>18.63185719631694</v>
       </c>
       <c r="AL60" t="n">
-        <v>10.46419427030166</v>
+        <v>10.46419427030167</v>
       </c>
       <c r="AM60" t="n">
         <v>28.58697624864171</v>
@@ -7656,7 +7656,7 @@
         <v>11.66870111865552</v>
       </c>
       <c r="B61" t="n">
-        <v>0.2421517822174457</v>
+        <v>0.2421517822174458</v>
       </c>
       <c r="C61" t="n">
         <v>42.74342409358955</v>
@@ -7698,7 +7698,7 @@
         <v>17.79859547876264</v>
       </c>
       <c r="P61" t="n">
-        <v>63.96167823912943</v>
+        <v>63.96167823912942</v>
       </c>
       <c r="Q61" t="n">
         <v>48.22864262696235</v>
@@ -7707,7 +7707,7 @@
         <v>76.97863802161106</v>
       </c>
       <c r="S61" t="n">
-        <v>84.20349670518486</v>
+        <v>84.20349670518488</v>
       </c>
       <c r="T61" t="n">
         <v>76.56585977002447</v>
@@ -7725,13 +7725,13 @@
         <v>83.94325742784056</v>
       </c>
       <c r="Y61" t="n">
-        <v>80.40421553575403</v>
+        <v>80.40421553575405</v>
       </c>
       <c r="Z61" t="n">
         <v>68.12241837518178</v>
       </c>
       <c r="AA61" t="n">
-        <v>89.31076775431839</v>
+        <v>89.31076775431838</v>
       </c>
       <c r="AB61" t="n">
         <v>30.2960338388516</v>
@@ -7835,7 +7835,7 @@
         <v>75.63971451799787</v>
       </c>
       <c r="V62" t="n">
-        <v>61.077191636143</v>
+        <v>61.07719163614301</v>
       </c>
       <c r="W62" t="n">
         <v>51.821623308586</v>
@@ -7853,7 +7853,7 @@
         <v>77.73397758465455</v>
       </c>
       <c r="AB62" t="n">
-        <v>24.51920312028784</v>
+        <v>24.51920312028785</v>
       </c>
       <c r="AC62" t="n">
         <v>16.79891123787432</v>
@@ -7877,7 +7877,7 @@
         <v>55.75141257328856</v>
       </c>
       <c r="AJ62" t="n">
-        <v>74.02635272641847</v>
+        <v>74.02635272641845</v>
       </c>
       <c r="AK62" t="n">
         <v>62.58818406813774</v>
@@ -7942,10 +7942,10 @@
         <v>50.62495604584007</v>
       </c>
       <c r="R63" t="n">
-        <v>79.41494878657596</v>
+        <v>79.41494878657595</v>
       </c>
       <c r="S63" t="n">
-        <v>85.15003060576335</v>
+        <v>85.15003060576336</v>
       </c>
       <c r="T63" t="n">
         <v>77.64055869883381</v>
@@ -7969,7 +7969,7 @@
         <v>70.09408562152024</v>
       </c>
       <c r="AA63" t="n">
-        <v>91.37172393248753</v>
+        <v>91.37172393248751</v>
       </c>
       <c r="AB63" t="n">
         <v>33.58092957705327</v>
@@ -8013,7 +8013,7 @@
         <v>4.20349865841221</v>
       </c>
       <c r="B64" t="n">
-        <v>0.04169575296611888</v>
+        <v>0.04169575296611884</v>
       </c>
       <c r="C64" t="n">
         <v>16.0502382119056</v>
@@ -8034,28 +8034,28 @@
         <v>0.2564044541601694</v>
       </c>
       <c r="I64" t="n">
-        <v>25.14913227947729</v>
+        <v>25.1491322794773</v>
       </c>
       <c r="J64" t="n">
         <v>2.381977028218449</v>
       </c>
       <c r="K64" t="n">
-        <v>0.005206279915440135</v>
+        <v>0.005206279915440138</v>
       </c>
       <c r="L64" t="n">
         <v>10.40329246023733</v>
       </c>
       <c r="M64" t="n">
-        <v>-0.1321807785096718</v>
+        <v>-0.1321807785096691</v>
       </c>
       <c r="N64" t="n">
-        <v>-0.3855459815867714</v>
+        <v>-0.3855459815867723</v>
       </c>
       <c r="O64" t="n">
         <v>0.540991105515694</v>
       </c>
       <c r="P64" t="n">
-        <v>2.144317346767473</v>
+        <v>2.14431734676748</v>
       </c>
       <c r="Q64" t="n">
         <v>-1.140115888611813</v>
@@ -8064,22 +8064,22 @@
         <v>6.999110868368817</v>
       </c>
       <c r="S64" t="n">
-        <v>0.3994770458002108</v>
+        <v>0.3994770458001966</v>
       </c>
       <c r="T64" t="n">
-        <v>-7.308850013105264</v>
+        <v>-7.30885001310525</v>
       </c>
       <c r="U64" t="n">
         <v>7.849796229648433</v>
       </c>
       <c r="V64" t="n">
-        <v>-7.448603853711077</v>
+        <v>-7.44860385371107</v>
       </c>
       <c r="W64" t="n">
         <v>-11.16800660264736</v>
       </c>
       <c r="X64" t="n">
-        <v>-2.2627140703677</v>
+        <v>-2.262714070367693</v>
       </c>
       <c r="Y64" t="n">
         <v>14.93219156896385</v>
@@ -8088,10 +8088,10 @@
         <v>4.605396452464369</v>
       </c>
       <c r="AA64" t="n">
-        <v>26.83032552770055</v>
+        <v>26.83032552770054</v>
       </c>
       <c r="AB64" t="n">
-        <v>7.270522615029877</v>
+        <v>7.270522615029874</v>
       </c>
       <c r="AC64" t="n">
         <v>3.27719166577843</v>
@@ -8103,7 +8103,7 @@
         <v>49.20418535473446</v>
       </c>
       <c r="AF64" t="n">
-        <v>34.62865056769693</v>
+        <v>34.62865056769694</v>
       </c>
       <c r="AG64" t="n">
         <v>63.77359429364432</v>
@@ -8115,13 +8115,13 @@
         <v>0.1466779031861947</v>
       </c>
       <c r="AJ64" t="n">
-        <v>15.86023941405575</v>
+        <v>15.86023941405574</v>
       </c>
       <c r="AK64" t="n">
         <v>18.61482107152283</v>
       </c>
       <c r="AL64" t="n">
-        <v>10.50199511707221</v>
+        <v>10.50199511707222</v>
       </c>
       <c r="AM64" t="n">
         <v>28.57242613537511</v>
@@ -8156,10 +8156,10 @@
         <v>63.56286860276978</v>
       </c>
       <c r="J65" t="n">
-        <v>6.592586359868655</v>
+        <v>6.592586359868656</v>
       </c>
       <c r="K65" t="n">
-        <v>0.03933561224208267</v>
+        <v>0.03933561224208266</v>
       </c>
       <c r="L65" t="n">
         <v>26.10676000515448</v>
@@ -8174,7 +8174,7 @@
         <v>16.8105738011087</v>
       </c>
       <c r="P65" t="n">
-        <v>69.49904547023098</v>
+        <v>69.49904547023097</v>
       </c>
       <c r="Q65" t="n">
         <v>51.86383499337578</v>
@@ -8186,7 +8186,7 @@
         <v>96.35664333897356</v>
       </c>
       <c r="T65" t="n">
-        <v>88.48513845366153</v>
+        <v>88.48513845366152</v>
       </c>
       <c r="U65" t="n">
         <v>101.6949241805431</v>
@@ -8228,7 +8228,7 @@
         <v>86.68833708036358</v>
       </c>
       <c r="AH65" t="n">
-        <v>87.69406966109241</v>
+        <v>87.6940696610924</v>
       </c>
       <c r="AI65" t="n">
         <v>76.56234438928092</v>
@@ -8284,7 +8284,7 @@
         <v>21.20345079693394</v>
       </c>
       <c r="M66" t="n">
-        <v>8.138018437103266</v>
+        <v>8.138018437103268</v>
       </c>
       <c r="N66" t="n">
         <v>4.258050563207632</v>
@@ -8305,7 +8305,7 @@
         <v>56.5457281217326</v>
       </c>
       <c r="T66" t="n">
-        <v>48.85116398332478</v>
+        <v>48.85116398332477</v>
       </c>
       <c r="U66" t="n">
         <v>62.82016358355178</v>
@@ -8430,7 +8430,7 @@
         <v>62.24258856016774</v>
       </c>
       <c r="V67" t="n">
-        <v>48.30556173467658</v>
+        <v>48.30556173467657</v>
       </c>
       <c r="W67" t="n">
         <v>40.05627178011105</v>
@@ -8454,7 +8454,7 @@
         <v>15.02286306122332</v>
       </c>
       <c r="AD67" t="n">
-        <v>29.7820506196406</v>
+        <v>29.78205061964061</v>
       </c>
       <c r="AE67" t="n">
         <v>65.87669097324387</v>
@@ -8475,7 +8475,7 @@
         <v>62.72745698971705</v>
       </c>
       <c r="AK67" t="n">
-        <v>54.6864971021841</v>
+        <v>54.68649710218411</v>
       </c>
       <c r="AL67" t="n">
         <v>42.39130459591735</v>
@@ -8486,10 +8486,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>5.091750129651519</v>
+        <v>5.09175012965152</v>
       </c>
       <c r="B68" t="n">
-        <v>0.09188661877202167</v>
+        <v>0.09188661877202164</v>
       </c>
       <c r="C68" t="n">
         <v>19.69263886625448</v>
@@ -8507,10 +8507,10 @@
         <v>9.638828469174452</v>
       </c>
       <c r="H68" t="n">
-        <v>0.3186503340425719</v>
+        <v>0.3186503340425718</v>
       </c>
       <c r="I68" t="n">
-        <v>27.96364780896239</v>
+        <v>27.9636478089624</v>
       </c>
       <c r="J68" t="n">
         <v>2.689024257922712</v>
@@ -8522,34 +8522,34 @@
         <v>11.28233690396534</v>
       </c>
       <c r="M68" t="n">
-        <v>0.5351255471704492</v>
+        <v>0.535125547170451</v>
       </c>
       <c r="N68" t="n">
-        <v>-0.05186637416846329</v>
+        <v>-0.05186637416846374</v>
       </c>
       <c r="O68" t="n">
         <v>1.557018232853602</v>
       </c>
       <c r="P68" t="n">
-        <v>10.10473357743953</v>
+        <v>10.10473357743955</v>
       </c>
       <c r="Q68" t="n">
         <v>4.834623429179558</v>
       </c>
       <c r="R68" t="n">
-        <v>16.34182370559804</v>
+        <v>16.34182370559803</v>
       </c>
       <c r="S68" t="n">
         <v>13.42194425246696</v>
       </c>
       <c r="T68" t="n">
-        <v>5.455743262155323</v>
+        <v>5.45574326215533</v>
       </c>
       <c r="U68" t="n">
-        <v>20.75008077896004</v>
+        <v>20.75008077896003</v>
       </c>
       <c r="V68" t="n">
-        <v>4.691331625388159</v>
+        <v>4.691331625388166</v>
       </c>
       <c r="W68" t="n">
         <v>-0.03177870810257133</v>
@@ -8567,19 +8567,19 @@
         <v>35.43220534622409</v>
       </c>
       <c r="AB68" t="n">
-        <v>8.050840724363649</v>
+        <v>8.050840724363647</v>
       </c>
       <c r="AC68" t="n">
         <v>3.983723432791301</v>
       </c>
       <c r="AD68" t="n">
-        <v>12.82389303103291</v>
+        <v>12.8238930310329</v>
       </c>
       <c r="AE68" t="n">
         <v>51.82018322265782</v>
       </c>
       <c r="AF68" t="n">
-        <v>37.36228942442402</v>
+        <v>37.36228942442403</v>
       </c>
       <c r="AG68" t="n">
         <v>66.09562960782166</v>
@@ -8588,10 +8588,10 @@
         <v>17.80726500622664</v>
       </c>
       <c r="AI68" t="n">
-        <v>10.21218526869448</v>
+        <v>10.21218526869447</v>
       </c>
       <c r="AJ68" t="n">
-        <v>26.46620544656898</v>
+        <v>26.46620544656897</v>
       </c>
       <c r="AK68" t="n">
         <v>24.9316606080276</v>
@@ -8620,7 +8620,7 @@
         <v>1.969309169452899</v>
       </c>
       <c r="F69" t="n">
-        <v>62.30310375974865</v>
+        <v>62.30310375974864</v>
       </c>
       <c r="G69" t="n">
         <v>27.70733589327694</v>
@@ -8629,7 +8629,7 @@
         <v>0.9801285765553118</v>
       </c>
       <c r="I69" t="n">
-        <v>74.21225982157166</v>
+        <v>74.21225982157165</v>
       </c>
       <c r="J69" t="n">
         <v>7.688993949383606</v>
@@ -8656,7 +8656,7 @@
         <v>63.8577410921113</v>
       </c>
       <c r="R69" t="n">
-        <v>99.44941507415686</v>
+        <v>99.44941507415685</v>
       </c>
       <c r="S69" t="n">
         <v>111.7840519609367</v>
@@ -8671,7 +8671,7 @@
         <v>103.2442677008818</v>
       </c>
       <c r="W69" t="n">
-        <v>90.61128505490824</v>
+        <v>90.61128505490825</v>
       </c>
       <c r="X69" t="n">
         <v>112.0263558027589</v>
@@ -8686,7 +8686,7 @@
         <v>109.4894377425057</v>
       </c>
       <c r="AB69" t="n">
-        <v>36.85318266674912</v>
+        <v>36.85318266674913</v>
       </c>
       <c r="AC69" t="n">
         <v>26.34708461551335</v>
@@ -8724,19 +8724,19 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>4.834983488249702</v>
+        <v>4.834983488249703</v>
       </c>
       <c r="B70" t="n">
-        <v>0.01278482783320783</v>
+        <v>0.01278482783320781</v>
       </c>
       <c r="C70" t="n">
         <v>18.60536176395876</v>
       </c>
       <c r="D70" t="n">
-        <v>9.600152058443516</v>
+        <v>9.600152058443514</v>
       </c>
       <c r="E70" t="n">
-        <v>0.4955572671988195</v>
+        <v>0.4955572671988197</v>
       </c>
       <c r="F70" t="n">
         <v>22.8485301152127</v>
@@ -8748,7 +8748,7 @@
         <v>0.2602433822584326</v>
       </c>
       <c r="I70" t="n">
-        <v>27.9834985546836</v>
+        <v>27.98349855468361</v>
       </c>
       <c r="J70" t="n">
         <v>2.751628113784897</v>
@@ -8760,7 +8760,7 @@
         <v>11.4508485983489</v>
       </c>
       <c r="M70" t="n">
-        <v>-0.09804416745079614</v>
+        <v>-0.09804416745079436</v>
       </c>
       <c r="N70" t="n">
         <v>-0.3884389649191493</v>
@@ -8769,7 +8769,7 @@
         <v>0.57314685406606</v>
       </c>
       <c r="P70" t="n">
-        <v>8.988177861657555</v>
+        <v>8.988177861657562</v>
       </c>
       <c r="Q70" t="n">
         <v>3.749999654740215</v>
@@ -8778,10 +8778,10 @@
         <v>15.29818196396894</v>
       </c>
       <c r="S70" t="n">
-        <v>13.10310395757854</v>
+        <v>13.10310395757853</v>
       </c>
       <c r="T70" t="n">
-        <v>5.377162472122258</v>
+        <v>5.377162472122272</v>
       </c>
       <c r="U70" t="n">
         <v>20.13213894814324</v>
@@ -8805,7 +8805,7 @@
         <v>34.24636203565498</v>
       </c>
       <c r="AB70" t="n">
-        <v>6.500618191166119</v>
+        <v>6.500618191166115</v>
       </c>
       <c r="AC70" t="n">
         <v>3.167076927846084</v>
@@ -8817,7 +8817,7 @@
         <v>50.59119056082071</v>
       </c>
       <c r="AF70" t="n">
-        <v>35.76873350185323</v>
+        <v>35.76873350185324</v>
       </c>
       <c r="AG70" t="n">
         <v>65.10064608105188</v>
@@ -8826,10 +8826,10 @@
         <v>17.01906851869763</v>
       </c>
       <c r="AI70" t="n">
-        <v>9.579340749370594</v>
+        <v>9.579340749370587</v>
       </c>
       <c r="AJ70" t="n">
-        <v>25.70142495113806</v>
+        <v>25.70142495113805</v>
       </c>
       <c r="AK70" t="n">
         <v>23.29570480419639</v>
@@ -8846,7 +8846,7 @@
         <v>7.002030530922577</v>
       </c>
       <c r="B71" t="n">
-        <v>0.09801141526709786</v>
+        <v>0.09801141526709785</v>
       </c>
       <c r="C71" t="n">
         <v>26.79306260409398</v>
@@ -8855,7 +8855,7 @@
         <v>13.74316549403968</v>
       </c>
       <c r="E71" t="n">
-        <v>0.7424792980473064</v>
+        <v>0.7424792980473063</v>
       </c>
       <c r="F71" t="n">
         <v>31.28718325572808</v>
@@ -8867,7 +8867,7 @@
         <v>0.4181771805715123</v>
       </c>
       <c r="I71" t="n">
-        <v>37.35098498788891</v>
+        <v>37.35098498788892</v>
       </c>
       <c r="J71" t="n">
         <v>3.765457546765059</v>
@@ -8885,7 +8885,7 @@
         <v>1.110090402986963</v>
       </c>
       <c r="O71" t="n">
-        <v>4.633453945344915</v>
+        <v>4.633453945344916</v>
       </c>
       <c r="P71" t="n">
         <v>27.45868436790989</v>
@@ -8921,16 +8921,16 @@
         <v>31.92765610956156</v>
       </c>
       <c r="AA71" t="n">
-        <v>53.43339524012891</v>
+        <v>53.43339524012892</v>
       </c>
       <c r="AB71" t="n">
         <v>11.39226281598698</v>
       </c>
       <c r="AC71" t="n">
-        <v>7.056333154071966</v>
+        <v>7.056333154071965</v>
       </c>
       <c r="AD71" t="n">
-        <v>16.39290297498223</v>
+        <v>16.39290297498222</v>
       </c>
       <c r="AE71" t="n">
         <v>57.65105728190906</v>
@@ -8998,7 +8998,7 @@
         <v>16.29758968228354</v>
       </c>
       <c r="M72" t="n">
-        <v>4.00272106882218</v>
+        <v>4.002721068822181</v>
       </c>
       <c r="N72" t="n">
         <v>1.893853064586022</v>
@@ -9007,7 +9007,7 @@
         <v>6.643553758239565</v>
       </c>
       <c r="P72" t="n">
-        <v>29.91338962881482</v>
+        <v>29.91338962881483</v>
       </c>
       <c r="Q72" t="n">
         <v>20.52048836182826</v>
@@ -9025,7 +9025,7 @@
         <v>47.7182396436768</v>
       </c>
       <c r="V72" t="n">
-        <v>32.17102124618014</v>
+        <v>32.17102124618015</v>
       </c>
       <c r="W72" t="n">
         <v>25.19887215551543</v>
@@ -9043,7 +9043,7 @@
         <v>55.53319272366918</v>
       </c>
       <c r="AB72" t="n">
-        <v>14.65410222021283</v>
+        <v>14.65410222021282</v>
       </c>
       <c r="AC72" t="n">
         <v>9.279655941579193</v>
